--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_19_40.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_19_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3641837.94610831</v>
+        <v>3639446.571844765</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673428</v>
+        <v>603248.4937673437</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7432249.050204821</v>
+        <v>7432249.050204822</v>
       </c>
     </row>
     <row r="11">
@@ -1373,10 +1373,10 @@
         <v>318.297755152415</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E11" t="n">
-        <v>89.67180144361345</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>359.9009091231189</v>
@@ -1385,7 +1385,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H11" t="n">
-        <v>247.6326277687279</v>
+        <v>211.9164927266852</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>62.21262516958325</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U11" t="n">
         <v>204.0200353403094</v>
@@ -1436,7 +1436,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y11" t="n">
-        <v>339.262802037461</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1528,25 +1528,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C13" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D13" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E13" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F13" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G13" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H13" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I13" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S13" t="n">
         <v>142.7938887128493</v>
@@ -1616,13 +1616,13 @@
         <v>334.9552334536692</v>
       </c>
       <c r="F14" t="n">
-        <v>359.9009091231189</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>363.9465890348609</v>
+        <v>13.91332762480699</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T14" t="n">
         <v>156.9428335210276</v>
       </c>
       <c r="U14" t="n">
-        <v>84.70823959698996</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W14" t="n">
         <v>302.2658320988205</v>
@@ -1783,7 +1783,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I16" t="n">
-        <v>49.37728379124553</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>290.5688020035562</v>
+        <v>290.5688020035558</v>
       </c>
       <c r="C17" t="n">
-        <v>273.1078521110832</v>
+        <v>195.8323241565599</v>
       </c>
       <c r="D17" t="n">
-        <v>262.5180019607586</v>
+        <v>262.5180019607582</v>
       </c>
       <c r="E17" t="n">
-        <v>289.7653304123374</v>
+        <v>289.7653304123371</v>
       </c>
       <c r="F17" t="n">
-        <v>314.711006081787</v>
+        <v>314.7110060817867</v>
       </c>
       <c r="G17" t="n">
-        <v>318.7566859935291</v>
+        <v>318.7566859935287</v>
       </c>
       <c r="H17" t="n">
-        <v>202.4427247273961</v>
+        <v>202.4427247273957</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>17.02272212825112</v>
       </c>
       <c r="T17" t="n">
-        <v>51.50012465341922</v>
+        <v>111.7529304796954</v>
       </c>
       <c r="U17" t="n">
-        <v>158.8301322989776</v>
+        <v>158.8301322989773</v>
       </c>
       <c r="V17" t="n">
-        <v>235.5872188102105</v>
+        <v>235.5872188102102</v>
       </c>
       <c r="W17" t="n">
-        <v>257.0759290574886</v>
+        <v>257.0759290574883</v>
       </c>
       <c r="X17" t="n">
-        <v>277.5660610185446</v>
+        <v>277.5660610185443</v>
       </c>
       <c r="Y17" t="n">
-        <v>294.0728989961292</v>
+        <v>294.0728989961289</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>162.6547320146117</v>
+        <v>87.66694052201258</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>75.08178143870312</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>56.45043335828764</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>129.2567144792475</v>
       </c>
       <c r="F19" t="n">
-        <v>53.25600836300687</v>
+        <v>53.25600836300653</v>
       </c>
       <c r="G19" t="n">
-        <v>73.86076859910385</v>
+        <v>73.86076859910351</v>
       </c>
       <c r="H19" t="n">
-        <v>52.58997525439641</v>
+        <v>52.58997525439607</v>
       </c>
       <c r="I19" t="n">
-        <v>4.187380749913721</v>
+        <v>4.18738074991338</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>97.60398567151751</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>127.3839096162448</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>194.0467985456885</v>
+        <v>194.0467985456881</v>
       </c>
       <c r="V19" t="n">
-        <v>159.9726036639036</v>
+        <v>159.9726036639033</v>
       </c>
       <c r="W19" t="n">
-        <v>194.3579586766666</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>133.5446157291128</v>
+        <v>133.5446157291124</v>
       </c>
       <c r="Y19" t="n">
-        <v>126.4196136921704</v>
+        <v>126.4196136921701</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>290.5688020035562</v>
+        <v>290.5688020035558</v>
       </c>
       <c r="C20" t="n">
-        <v>273.1078521110832</v>
+        <v>273.1078521110828</v>
       </c>
       <c r="D20" t="n">
-        <v>262.5180019607586</v>
+        <v>262.5180019607582</v>
       </c>
       <c r="E20" t="n">
-        <v>289.7653304123374</v>
+        <v>212.4898024578131</v>
       </c>
       <c r="F20" t="n">
-        <v>314.711006081787</v>
+        <v>314.7110060817867</v>
       </c>
       <c r="G20" t="n">
-        <v>318.7566859935291</v>
+        <v>318.7566859935287</v>
       </c>
       <c r="H20" t="n">
-        <v>202.4427247273961</v>
+        <v>202.4427247273957</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>17.02272212825146</v>
+        <v>17.02272212825112</v>
       </c>
       <c r="T20" t="n">
-        <v>111.7529304796958</v>
+        <v>111.7529304796954</v>
       </c>
       <c r="U20" t="n">
-        <v>158.8301322989776</v>
+        <v>158.8301322989773</v>
       </c>
       <c r="V20" t="n">
-        <v>235.5872188102105</v>
+        <v>235.5872188102102</v>
       </c>
       <c r="W20" t="n">
-        <v>257.0759290574886</v>
+        <v>257.0759290574883</v>
       </c>
       <c r="X20" t="n">
-        <v>200.2905330640174</v>
+        <v>277.5660610185443</v>
       </c>
       <c r="Y20" t="n">
-        <v>294.0728989961292</v>
+        <v>294.0728989961289</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2178,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>87.66694052201292</v>
+        <v>87.66694052201258</v>
       </c>
       <c r="C22" t="n">
-        <v>75.08178143870346</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>56.45043335828798</v>
+        <v>56.45043335828764</v>
       </c>
       <c r="E22" t="n">
-        <v>54.2689229866448</v>
+        <v>54.26892298664445</v>
       </c>
       <c r="F22" t="n">
-        <v>53.25600836300687</v>
+        <v>53.25600836300653</v>
       </c>
       <c r="G22" t="n">
-        <v>73.86076859910385</v>
+        <v>73.86076859910351</v>
       </c>
       <c r="H22" t="n">
-        <v>130.810653736872</v>
+        <v>52.58997525439607</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>4.18738074991338</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>97.60398567151751</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>127.3839096162445</v>
       </c>
       <c r="U22" t="n">
-        <v>194.0467985456885</v>
+        <v>194.0467985456881</v>
       </c>
       <c r="V22" t="n">
-        <v>159.9726036639036</v>
+        <v>238.1932821463838</v>
       </c>
       <c r="W22" t="n">
-        <v>194.3579586766666</v>
+        <v>194.3579586766663</v>
       </c>
       <c r="X22" t="n">
-        <v>133.5446157291128</v>
+        <v>133.5446157291124</v>
       </c>
       <c r="Y22" t="n">
-        <v>126.4196136921704</v>
+        <v>126.4196136921701</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>290.5688020035562</v>
+        <v>290.5688020035558</v>
       </c>
       <c r="C23" t="n">
-        <v>273.1078521110832</v>
+        <v>273.1078521110828</v>
       </c>
       <c r="D23" t="n">
-        <v>262.5180019607586</v>
+        <v>262.5180019607582</v>
       </c>
       <c r="E23" t="n">
-        <v>289.7653304123374</v>
+        <v>289.7653304123371</v>
       </c>
       <c r="F23" t="n">
-        <v>314.711006081787</v>
+        <v>314.7110060817867</v>
       </c>
       <c r="G23" t="n">
-        <v>318.7566859935291</v>
+        <v>318.7566859935287</v>
       </c>
       <c r="H23" t="n">
-        <v>202.4427247273961</v>
+        <v>202.4427247273957</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>17.02272212825146</v>
+        <v>17.02272212825112</v>
       </c>
       <c r="T23" t="n">
-        <v>111.7529304796958</v>
+        <v>111.7529304796954</v>
       </c>
       <c r="U23" t="n">
-        <v>158.8301322989776</v>
+        <v>158.8301322989773</v>
       </c>
       <c r="V23" t="n">
-        <v>235.5872188102105</v>
+        <v>235.5872188102102</v>
       </c>
       <c r="W23" t="n">
-        <v>257.0759290574886</v>
+        <v>257.0759290574883</v>
       </c>
       <c r="X23" t="n">
-        <v>277.5660610185446</v>
+        <v>277.5660610185443</v>
       </c>
       <c r="Y23" t="n">
-        <v>294.0728989961292</v>
+        <v>294.0728989961289</v>
       </c>
     </row>
     <row r="24">
@@ -2415,7 +2415,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>87.66694052201292</v>
+        <v>87.66694052201258</v>
       </c>
       <c r="C25" t="n">
-        <v>75.08178143870346</v>
+        <v>75.08178143870312</v>
       </c>
       <c r="D25" t="n">
-        <v>56.45043335828798</v>
+        <v>56.45043335828764</v>
       </c>
       <c r="E25" t="n">
-        <v>54.2689229866448</v>
+        <v>54.26892298664445</v>
       </c>
       <c r="F25" t="n">
-        <v>128.2437998556056</v>
+        <v>53.25600836300653</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>73.86076859910351</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>52.58997525439607</v>
       </c>
       <c r="I25" t="n">
-        <v>4.187380749913721</v>
+        <v>4.18738074991338</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>97.60398567151751</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>127.3839096162448</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>269.0345900382911</v>
       </c>
       <c r="V25" t="n">
-        <v>159.9726036639036</v>
+        <v>159.9726036639033</v>
       </c>
       <c r="W25" t="n">
-        <v>194.3579586766666</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>133.5446157291128</v>
+        <v>133.5446157291124</v>
       </c>
       <c r="Y25" t="n">
-        <v>126.4196136921704</v>
+        <v>126.4196136921701</v>
       </c>
     </row>
     <row r="26">
@@ -2552,25 +2552,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>335.7587050448881</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C26" t="n">
-        <v>318.297755152415</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D26" t="n">
-        <v>307.7079050020905</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E26" t="n">
-        <v>334.9552334536693</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F26" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G26" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H26" t="n">
-        <v>247.6326277687279</v>
+        <v>247.6326277687278</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T26" t="n">
-        <v>156.9428335210276</v>
+        <v>156.9428335210275</v>
       </c>
       <c r="U26" t="n">
-        <v>204.0200353403093</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V26" t="n">
-        <v>280.7771218515424</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W26" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X26" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y26" t="n">
-        <v>339.2628020374611</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="27">
@@ -2652,7 +2652,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,10 +2679,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T27" t="n">
         <v>190.7165703189231</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C28" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D28" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797657</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140433864</v>
       </c>
       <c r="G28" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572825</v>
+        <v>97.77987829572818</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124555</v>
+        <v>49.3772837912455</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145472</v>
       </c>
       <c r="S28" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T28" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U28" t="n">
-        <v>239.2367015870203</v>
+        <v>239.2367015870202</v>
       </c>
       <c r="V28" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W28" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X28" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704445</v>
       </c>
       <c r="Y28" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958327</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.2126251695833</v>
+        <v>62.21262516958327</v>
       </c>
       <c r="T32" t="n">
         <v>156.9428335210276</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C34" t="n">
         <v>120.2716844800353</v>
@@ -3193,19 +3193,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G34" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572825</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124557</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.9570160514548</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S34" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T34" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U34" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V34" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W34" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X34" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y34" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>308.9883708683422</v>
+        <v>308.9883708683425</v>
       </c>
       <c r="C35" t="n">
-        <v>291.5274209758692</v>
+        <v>291.5274209758695</v>
       </c>
       <c r="D35" t="n">
-        <v>280.9375708255446</v>
+        <v>280.9375708255449</v>
       </c>
       <c r="E35" t="n">
-        <v>308.1848992771234</v>
+        <v>308.1848992771237</v>
       </c>
       <c r="F35" t="n">
-        <v>333.1305749465731</v>
+        <v>333.1305749465734</v>
       </c>
       <c r="G35" t="n">
-        <v>2.026762796784519</v>
+        <v>2.026762796777766</v>
       </c>
       <c r="H35" t="n">
-        <v>220.8622935921821</v>
+        <v>220.8622935921824</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>35.44229099303745</v>
+        <v>35.44229099303779</v>
       </c>
       <c r="T35" t="n">
-        <v>130.1724993444818</v>
+        <v>130.1724993444821</v>
       </c>
       <c r="U35" t="n">
-        <v>177.2497011637636</v>
+        <v>177.2497011637639</v>
       </c>
       <c r="V35" t="n">
-        <v>254.0067876749965</v>
+        <v>254.0067876749969</v>
       </c>
       <c r="W35" t="n">
-        <v>275.4954979222746</v>
+        <v>275.495497922275</v>
       </c>
       <c r="X35" t="n">
-        <v>295.9856298833307</v>
+        <v>295.985629883331</v>
       </c>
       <c r="Y35" t="n">
-        <v>312.4924678609152</v>
+        <v>312.4924678609156</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>106.0865093867989</v>
+        <v>106.0865093867992</v>
       </c>
       <c r="C37" t="n">
-        <v>93.50135030348945</v>
+        <v>93.50135030348979</v>
       </c>
       <c r="D37" t="n">
-        <v>74.87000222307397</v>
+        <v>74.87000222307431</v>
       </c>
       <c r="E37" t="n">
-        <v>72.68849185143078</v>
+        <v>72.68849185143112</v>
       </c>
       <c r="F37" t="n">
-        <v>71.67557722779286</v>
+        <v>71.6755772277932</v>
       </c>
       <c r="G37" t="n">
-        <v>92.28033746388984</v>
+        <v>92.28033746389018</v>
       </c>
       <c r="H37" t="n">
-        <v>71.00954411918239</v>
+        <v>71.00954411918273</v>
       </c>
       <c r="I37" t="n">
-        <v>22.60694961469971</v>
+        <v>22.60694961470005</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>75.18937750058174</v>
+        <v>15.18668187490928</v>
       </c>
       <c r="S37" t="n">
-        <v>116.0235545363035</v>
+        <v>116.0235545363039</v>
       </c>
       <c r="T37" t="n">
-        <v>145.8034784810308</v>
+        <v>145.8034784810312</v>
       </c>
       <c r="U37" t="n">
-        <v>212.4663674104745</v>
+        <v>212.4663674104748</v>
       </c>
       <c r="V37" t="n">
-        <v>178.3921725286896</v>
+        <v>178.39217252869</v>
       </c>
       <c r="W37" t="n">
-        <v>212.7775275414526</v>
+        <v>212.777527541453</v>
       </c>
       <c r="X37" t="n">
-        <v>151.9641845938988</v>
+        <v>151.9641845938991</v>
       </c>
       <c r="Y37" t="n">
-        <v>144.8391825569564</v>
+        <v>204.8418781826246</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>308.9883708683422</v>
+        <v>308.9883708683425</v>
       </c>
       <c r="C38" t="n">
-        <v>291.5274209758692</v>
+        <v>291.5274209758695</v>
       </c>
       <c r="D38" t="n">
-        <v>280.9375708255446</v>
+        <v>280.9375708255449</v>
       </c>
       <c r="E38" t="n">
-        <v>308.1848992771234</v>
+        <v>193.897700807768</v>
       </c>
       <c r="F38" t="n">
-        <v>333.1305749465731</v>
+        <v>333.1305749465734</v>
       </c>
       <c r="G38" t="n">
-        <v>337.1762548583151</v>
+        <v>337.1762548583154</v>
       </c>
       <c r="H38" t="n">
-        <v>220.8622935921821</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>35.44229099303777</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>130.1724993444821</v>
       </c>
       <c r="U38" t="n">
-        <v>7.714999439751387</v>
+        <v>177.2497011637639</v>
       </c>
       <c r="V38" t="n">
-        <v>254.0067876749965</v>
+        <v>254.0067876749969</v>
       </c>
       <c r="W38" t="n">
-        <v>275.4954979222746</v>
+        <v>275.495497922275</v>
       </c>
       <c r="X38" t="n">
-        <v>295.9856298833307</v>
+        <v>295.985629883331</v>
       </c>
       <c r="Y38" t="n">
-        <v>312.4924678609152</v>
+        <v>312.4924678609156</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>106.0865093867989</v>
+        <v>106.0865093867992</v>
       </c>
       <c r="C40" t="n">
-        <v>93.50135030348945</v>
+        <v>93.50135030348979</v>
       </c>
       <c r="D40" t="n">
-        <v>74.87000222307397</v>
+        <v>74.87000222307431</v>
       </c>
       <c r="E40" t="n">
-        <v>132.6911874771039</v>
+        <v>72.68849185143112</v>
       </c>
       <c r="F40" t="n">
-        <v>71.67557722779286</v>
+        <v>71.6755772277932</v>
       </c>
       <c r="G40" t="n">
-        <v>92.28033746388984</v>
+        <v>92.28033746389018</v>
       </c>
       <c r="H40" t="n">
-        <v>71.00954411918239</v>
+        <v>71.00954411918273</v>
       </c>
       <c r="I40" t="n">
-        <v>22.60694961469971</v>
+        <v>22.60694961470005</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>15.18668187490894</v>
+        <v>15.18668187490928</v>
       </c>
       <c r="S40" t="n">
-        <v>116.0235545363035</v>
+        <v>116.0235545363039</v>
       </c>
       <c r="T40" t="n">
-        <v>145.8034784810308</v>
+        <v>145.8034784810312</v>
       </c>
       <c r="U40" t="n">
-        <v>212.4663674104745</v>
+        <v>212.4663674104748</v>
       </c>
       <c r="V40" t="n">
-        <v>178.3921725286896</v>
+        <v>238.3948681543576</v>
       </c>
       <c r="W40" t="n">
-        <v>212.7775275414526</v>
+        <v>212.777527541453</v>
       </c>
       <c r="X40" t="n">
-        <v>151.9641845938988</v>
+        <v>151.9641845938991</v>
       </c>
       <c r="Y40" t="n">
-        <v>144.8391825569564</v>
+        <v>144.8391825569568</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>310.7736044456029</v>
+        <v>310.773604445603</v>
       </c>
       <c r="C41" t="n">
-        <v>293.3126545531298</v>
+        <v>293.31265455313</v>
       </c>
       <c r="D41" t="n">
-        <v>282.7228044028053</v>
+        <v>282.7228044028054</v>
       </c>
       <c r="E41" t="n">
-        <v>309.9701328543841</v>
+        <v>284.7431792350359</v>
       </c>
       <c r="F41" t="n">
-        <v>334.9158085238338</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>338.9614884355758</v>
+        <v>338.9614884355759</v>
       </c>
       <c r="H41" t="n">
-        <v>41.53969976728476</v>
+        <v>222.6475271694429</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,16 +3788,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>37.22752457029816</v>
+        <v>37.22752457029824</v>
       </c>
       <c r="T41" t="n">
         <v>131.9577329217425</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>179.0349347410244</v>
       </c>
       <c r="V41" t="n">
-        <v>255.7920212522572</v>
+        <v>255.7920212522573</v>
       </c>
       <c r="W41" t="n">
         <v>277.2807314995354</v>
@@ -3806,7 +3806,7 @@
         <v>297.7708634605914</v>
       </c>
       <c r="Y41" t="n">
-        <v>314.2777014381759</v>
+        <v>314.277701438176</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>107.8717429640596</v>
+        <v>107.8717429640597</v>
       </c>
       <c r="C43" t="n">
-        <v>126.7255422702518</v>
+        <v>95.28658388075024</v>
       </c>
       <c r="D43" t="n">
-        <v>76.65523580033468</v>
+        <v>76.65523580033476</v>
       </c>
       <c r="E43" t="n">
-        <v>74.47372542869149</v>
+        <v>74.47372542869158</v>
       </c>
       <c r="F43" t="n">
-        <v>73.46081080505357</v>
+        <v>73.46081080505365</v>
       </c>
       <c r="G43" t="n">
-        <v>94.06557104115055</v>
+        <v>94.06557104115063</v>
       </c>
       <c r="H43" t="n">
-        <v>72.79477769644311</v>
+        <v>72.79477769644319</v>
       </c>
       <c r="I43" t="n">
-        <v>24.39218319196042</v>
+        <v>24.39218319196051</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>16.97191545216965</v>
+        <v>48.41087384167022</v>
       </c>
       <c r="S43" t="n">
-        <v>117.8087881135642</v>
+        <v>117.8087881135643</v>
       </c>
       <c r="T43" t="n">
-        <v>147.5887120582915</v>
+        <v>147.5887120582916</v>
       </c>
       <c r="U43" t="n">
-        <v>214.2516009877352</v>
+        <v>214.2516009877353</v>
       </c>
       <c r="V43" t="n">
-        <v>180.1774061059503</v>
+        <v>180.1774061059504</v>
       </c>
       <c r="W43" t="n">
-        <v>214.5627611187133</v>
+        <v>214.5627611187134</v>
       </c>
       <c r="X43" t="n">
-        <v>153.7494181711595</v>
+        <v>153.7494181711596</v>
       </c>
       <c r="Y43" t="n">
-        <v>146.6244161342171</v>
+        <v>146.6244161342172</v>
       </c>
     </row>
     <row r="44">
@@ -3977,13 +3977,13 @@
         <v>310.7736044456029</v>
       </c>
       <c r="C44" t="n">
-        <v>293.3126545531299</v>
+        <v>293.31265455313</v>
       </c>
       <c r="D44" t="n">
         <v>282.7228044028053</v>
       </c>
       <c r="E44" t="n">
-        <v>309.9701328543841</v>
+        <v>172.4748978806451</v>
       </c>
       <c r="F44" t="n">
         <v>334.9158085238338</v>
@@ -3992,7 +3992,7 @@
         <v>338.9614884355758</v>
       </c>
       <c r="H44" t="n">
-        <v>222.6475271694428</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4028,10 +4028,10 @@
         <v>37.22752457029819</v>
       </c>
       <c r="T44" t="n">
-        <v>86.09267221673706</v>
+        <v>131.9577329217425</v>
       </c>
       <c r="U44" t="n">
-        <v>179.0349347410243</v>
+        <v>179.0349347410244</v>
       </c>
       <c r="V44" t="n">
         <v>255.7920212522573</v>
@@ -4043,7 +4043,7 @@
         <v>297.7708634605914</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>314.277701438176</v>
       </c>
     </row>
     <row r="45">
@@ -4074,7 +4074,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,10 +4101,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>107.8717429640596</v>
+        <v>107.8717429640597</v>
       </c>
       <c r="C46" t="n">
-        <v>95.28658388075019</v>
+        <v>95.28658388075021</v>
       </c>
       <c r="D46" t="n">
-        <v>76.65523580033471</v>
+        <v>76.65523580033474</v>
       </c>
       <c r="E46" t="n">
-        <v>74.47372542869152</v>
+        <v>74.47372542869155</v>
       </c>
       <c r="F46" t="n">
-        <v>73.4608108050536</v>
+        <v>73.46081080505363</v>
       </c>
       <c r="G46" t="n">
-        <v>94.06557104115058</v>
+        <v>94.0655710411506</v>
       </c>
       <c r="H46" t="n">
-        <v>72.79477769644313</v>
+        <v>72.79477769644316</v>
       </c>
       <c r="I46" t="n">
-        <v>24.39218319196045</v>
+        <v>24.39218319196046</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>48.4108738416709</v>
+        <v>16.9719154521697</v>
       </c>
       <c r="S46" t="n">
-        <v>117.8087881135642</v>
+        <v>117.8087881135643</v>
       </c>
       <c r="T46" t="n">
-        <v>147.5887120582915</v>
+        <v>147.5887120582916</v>
       </c>
       <c r="U46" t="n">
-        <v>214.2516009877352</v>
+        <v>245.6905593772366</v>
       </c>
       <c r="V46" t="n">
         <v>180.1774061059504</v>
@@ -4201,7 +4201,7 @@
         <v>153.7494181711595</v>
       </c>
       <c r="Y46" t="n">
-        <v>146.6244161342171</v>
+        <v>146.6244161342172</v>
       </c>
     </row>
   </sheetData>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1459.895634131917</v>
+        <v>1644.057218491952</v>
       </c>
       <c r="C11" t="n">
-        <v>1138.382750139579</v>
+        <v>1322.544334499613</v>
       </c>
       <c r="D11" t="n">
-        <v>1138.382750139579</v>
+        <v>1011.728268840936</v>
       </c>
       <c r="E11" t="n">
-        <v>1047.805172923807</v>
+        <v>1011.728268840936</v>
       </c>
       <c r="F11" t="n">
-        <v>684.268901082273</v>
+        <v>648.1919969994019</v>
       </c>
       <c r="G11" t="n">
-        <v>316.6460838753429</v>
+        <v>280.5691797924717</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O11" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3262.764786084339</v>
+        <v>3262.76478608434</v>
       </c>
       <c r="T11" t="n">
-        <v>3262.764786084339</v>
+        <v>3104.236671416635</v>
       </c>
       <c r="U11" t="n">
-        <v>3056.683942306249</v>
+        <v>2898.155827638545</v>
       </c>
       <c r="V11" t="n">
-        <v>2773.070687910752</v>
+        <v>2614.542573243048</v>
       </c>
       <c r="W11" t="n">
-        <v>2467.751665588711</v>
+        <v>2309.223550921007</v>
       </c>
       <c r="X11" t="n">
-        <v>2141.735540275705</v>
+        <v>1983.207425608</v>
       </c>
       <c r="Y11" t="n">
-        <v>1799.045841247966</v>
+        <v>1983.207425608</v>
       </c>
     </row>
     <row r="12">
@@ -5094,28 +5094,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
         <v>160.1893859228007</v>
@@ -5124,16 +5124,16 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
         <v>2407.411984886741</v>
@@ -5151,7 +5151,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199865</v>
@@ -5160,10 +5160,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5173,13 +5173,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>759.4662498052944</v>
+        <v>759.4662498052946</v>
       </c>
       <c r="C13" t="n">
-        <v>637.9796998254608</v>
+        <v>637.979699825461</v>
       </c>
       <c r="D13" t="n">
-        <v>535.3126933611984</v>
+        <v>535.3126933611986</v>
       </c>
       <c r="E13" t="n">
         <v>434.8492327268787</v>
@@ -5191,19 +5191,19 @@
         <v>215.1557144998337</v>
       </c>
       <c r="H13" t="n">
-        <v>116.3881606657647</v>
+        <v>116.3881606657648</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
-        <v>158.1401341315256</v>
+        <v>158.1401341315257</v>
       </c>
       <c r="K13" t="n">
-        <v>408.6327023328086</v>
+        <v>408.6327023328087</v>
       </c>
       <c r="L13" t="n">
-        <v>771.6978860337115</v>
+        <v>771.6978860337113</v>
       </c>
       <c r="M13" t="n">
         <v>1162.360316885667</v>
@@ -5242,7 +5242,7 @@
         <v>1067.008027882918</v>
       </c>
       <c r="Y13" t="n">
-        <v>893.6650816874608</v>
+        <v>893.665081687461</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1768.338774781835</v>
+        <v>1301.367519464214</v>
       </c>
       <c r="C14" t="n">
-        <v>1446.825890789496</v>
+        <v>979.8546354718753</v>
       </c>
       <c r="D14" t="n">
-        <v>1136.009825130819</v>
+        <v>669.0385698131981</v>
       </c>
       <c r="E14" t="n">
-        <v>797.6712054806479</v>
+        <v>330.6999501630268</v>
       </c>
       <c r="F14" t="n">
-        <v>434.1349336391136</v>
+        <v>330.6999501630268</v>
       </c>
       <c r="G14" t="n">
-        <v>66.51211643218342</v>
+        <v>316.646083875343</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912105</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810571</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329466</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060173</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609171</v>
+        <v>3262.764786084341</v>
       </c>
       <c r="T14" t="n">
-        <v>3167.077706941467</v>
+        <v>3104.236671416636</v>
       </c>
       <c r="U14" t="n">
-        <v>3081.513828560669</v>
+        <v>2898.155827638545</v>
       </c>
       <c r="V14" t="n">
-        <v>3081.513828560669</v>
+        <v>2614.542573243048</v>
       </c>
       <c r="W14" t="n">
-        <v>2776.194806238628</v>
+        <v>2309.223550921007</v>
       </c>
       <c r="X14" t="n">
-        <v>2450.178680925621</v>
+        <v>1983.207425608001</v>
       </c>
       <c r="Y14" t="n">
-        <v>2107.488981897883</v>
+        <v>1640.517726580262</v>
       </c>
     </row>
     <row r="15">
@@ -5331,10 +5331,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D15" t="n">
         <v>618.1564155387305</v>
@@ -5343,46 +5343,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927788</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064633</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>398.453584903148</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q15" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T15" t="n">
         <v>2242.828302297192</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>759.4662498052948</v>
+        <v>759.4662498052944</v>
       </c>
       <c r="C16" t="n">
-        <v>637.9796998254611</v>
+        <v>637.9796998254608</v>
       </c>
       <c r="D16" t="n">
-        <v>535.3126933611987</v>
+        <v>535.3126933611984</v>
       </c>
       <c r="E16" t="n">
-        <v>434.8492327268789</v>
+        <v>434.8492327268785</v>
       </c>
       <c r="F16" t="n">
-        <v>335.4089181770419</v>
+        <v>335.4089181770415</v>
       </c>
       <c r="G16" t="n">
-        <v>215.1557144998339</v>
+        <v>215.1557144998337</v>
       </c>
       <c r="H16" t="n">
-        <v>116.3881606657651</v>
+        <v>116.3881606657648</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J16" t="n">
-        <v>158.1401341315259</v>
+        <v>158.1401341315254</v>
       </c>
       <c r="K16" t="n">
-        <v>408.6327023328088</v>
+        <v>408.6327023328084</v>
       </c>
       <c r="L16" t="n">
-        <v>771.6978860337115</v>
+        <v>771.6978860337113</v>
       </c>
       <c r="M16" t="n">
         <v>1162.360316885667</v>
@@ -5449,10 +5449,10 @@
         <v>1550.274078843938</v>
       </c>
       <c r="O16" t="n">
-        <v>1896.109063016759</v>
+        <v>1896.109063016758</v>
       </c>
       <c r="P16" t="n">
-        <v>2175.221948702825</v>
+        <v>2175.221948702824</v>
       </c>
       <c r="Q16" t="n">
         <v>2299.337630107746</v>
@@ -5470,7 +5470,7 @@
         <v>1696.750338179563</v>
       </c>
       <c r="V16" t="n">
-        <v>1489.51548292175</v>
+        <v>1489.515482921749</v>
       </c>
       <c r="W16" t="n">
         <v>1247.547945832862</v>
@@ -5479,7 +5479,7 @@
         <v>1067.008027882918</v>
       </c>
       <c r="Y16" t="n">
-        <v>893.6650816874612</v>
+        <v>893.6650816874608</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5489,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1744.594541974498</v>
+        <v>1666.538453131544</v>
       </c>
       <c r="C17" t="n">
-        <v>1468.728024690576</v>
+        <v>1468.728024690574</v>
       </c>
       <c r="D17" t="n">
-        <v>1203.558325740315</v>
+        <v>1203.558325740313</v>
       </c>
       <c r="E17" t="n">
-        <v>910.86607279856</v>
+        <v>910.8660727985585</v>
       </c>
       <c r="F17" t="n">
-        <v>592.9761676654417</v>
+        <v>592.9761676654406</v>
       </c>
       <c r="G17" t="n">
-        <v>270.999717166927</v>
+        <v>270.9997171669266</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
         <v>255.3912473912092</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329465</v>
@@ -5528,10 +5528,10 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q17" t="n">
         <v>3266.588755052369</v>
@@ -5540,25 +5540,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.605821609171</v>
+        <v>3308.411152792756</v>
       </c>
       <c r="T17" t="n">
-        <v>3273.585493676425</v>
+        <v>3195.529404833467</v>
       </c>
       <c r="U17" t="n">
-        <v>3113.151016606751</v>
+        <v>3035.094927763794</v>
       </c>
       <c r="V17" t="n">
-        <v>2875.184128919669</v>
+        <v>2797.128040076713</v>
       </c>
       <c r="W17" t="n">
-        <v>2615.511473306044</v>
+        <v>2537.455384463088</v>
       </c>
       <c r="X17" t="n">
-        <v>2335.141714701454</v>
+        <v>2257.085625858498</v>
       </c>
       <c r="Y17" t="n">
-        <v>2038.098382382131</v>
+        <v>1960.042293539176</v>
       </c>
     </row>
     <row r="18">
@@ -5568,37 +5568,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5625,7 +5625,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5634,10 +5634,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="19">
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>719.2296818158503</v>
+        <v>515.6869267783023</v>
       </c>
       <c r="C19" t="n">
-        <v>550.2934988879434</v>
+        <v>439.846743506885</v>
       </c>
       <c r="D19" t="n">
-        <v>400.1768594756077</v>
+        <v>382.8261037510389</v>
       </c>
       <c r="E19" t="n">
-        <v>252.2637658932146</v>
+        <v>252.2637658932132</v>
       </c>
       <c r="F19" t="n">
-        <v>198.4698180517935</v>
+        <v>198.4698180517925</v>
       </c>
       <c r="G19" t="n">
-        <v>123.8629810830017</v>
+        <v>123.862981083001</v>
       </c>
       <c r="H19" t="n">
-        <v>70.7417939573488</v>
+        <v>70.74179395734845</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
         <v>111.634748879119</v>
@@ -5698,25 +5698,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S19" t="n">
-        <v>1828.704663571808</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T19" t="n">
-        <v>1700.034047797824</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U19" t="n">
-        <v>1504.027180579957</v>
+        <v>1317.835181266978</v>
       </c>
       <c r="V19" t="n">
-        <v>1342.438692030559</v>
+        <v>1156.246692717581</v>
       </c>
       <c r="W19" t="n">
-        <v>1146.117521650088</v>
+        <v>866.8295226806206</v>
       </c>
       <c r="X19" t="n">
-        <v>1011.22397040856</v>
+        <v>731.9359714390929</v>
       </c>
       <c r="Y19" t="n">
-        <v>883.5273909215188</v>
+        <v>604.2393919520524</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1744.594541974498</v>
+        <v>1666.538453131543</v>
       </c>
       <c r="C20" t="n">
-        <v>1468.728024690576</v>
+        <v>1390.671935847621</v>
       </c>
       <c r="D20" t="n">
-        <v>1203.558325740314</v>
+        <v>1125.50223689736</v>
       </c>
       <c r="E20" t="n">
-        <v>910.8660727985596</v>
+        <v>910.8660727985585</v>
       </c>
       <c r="F20" t="n">
-        <v>592.9761676654414</v>
+        <v>592.9761676654406</v>
       </c>
       <c r="G20" t="n">
-        <v>270.999717166927</v>
+        <v>270.9997171669266</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
         <v>255.3912473912089</v>
@@ -5756,22 +5756,22 @@
         <v>589.2106210810554</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
         <v>3325.605821609171</v>
@@ -5780,7 +5780,7 @@
         <v>3308.411152792756</v>
       </c>
       <c r="T20" t="n">
-        <v>3195.529404833468</v>
+        <v>3195.529404833467</v>
       </c>
       <c r="U20" t="n">
         <v>3035.094927763793</v>
@@ -5789,13 +5789,13 @@
         <v>2797.128040076712</v>
       </c>
       <c r="W20" t="n">
-        <v>2537.455384463087</v>
+        <v>2537.455384463088</v>
       </c>
       <c r="X20" t="n">
-        <v>2335.141714701453</v>
+        <v>2257.085625858498</v>
       </c>
       <c r="Y20" t="n">
-        <v>2038.098382382131</v>
+        <v>1960.042293539175</v>
       </c>
     </row>
     <row r="21">
@@ -5805,37 +5805,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5862,7 +5862,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5871,10 +5871,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="22">
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>612.0484688488068</v>
+        <v>533.0376825028696</v>
       </c>
       <c r="C22" t="n">
-        <v>536.2082855773891</v>
+        <v>364.1014995749628</v>
       </c>
       <c r="D22" t="n">
-        <v>479.1876458215427</v>
+        <v>307.0808598191167</v>
       </c>
       <c r="E22" t="n">
-        <v>424.3705518956388</v>
+        <v>252.2637658932132</v>
       </c>
       <c r="F22" t="n">
-        <v>370.5766040542177</v>
+        <v>198.4698180517925</v>
       </c>
       <c r="G22" t="n">
-        <v>295.969767085426</v>
+        <v>123.862981083001</v>
       </c>
       <c r="H22" t="n">
-        <v>163.8377936138381</v>
+        <v>70.74179395734845</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
         <v>111.634748879119</v>
@@ -5935,25 +5935,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S22" t="n">
-        <v>1738.874206329336</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T22" t="n">
-        <v>1517.107590898862</v>
+        <v>1517.107590898863</v>
       </c>
       <c r="U22" t="n">
-        <v>1321.100723680995</v>
+        <v>1321.100723680996</v>
       </c>
       <c r="V22" t="n">
-        <v>1159.512235131597</v>
+        <v>1080.501448785659</v>
       </c>
       <c r="W22" t="n">
-        <v>963.1910647511261</v>
+        <v>884.1802784051879</v>
       </c>
       <c r="X22" t="n">
-        <v>828.297513509598</v>
+        <v>749.2867271636602</v>
       </c>
       <c r="Y22" t="n">
-        <v>700.6009340225572</v>
+        <v>621.5901476766197</v>
       </c>
     </row>
     <row r="23">
@@ -5963,37 +5963,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1746.187523379456</v>
+        <v>1746.187523379454</v>
       </c>
       <c r="C23" t="n">
-        <v>1470.321006095534</v>
+        <v>1470.321006095532</v>
       </c>
       <c r="D23" t="n">
-        <v>1205.151307145273</v>
+        <v>1205.151307145271</v>
       </c>
       <c r="E23" t="n">
-        <v>912.4590542035177</v>
+        <v>912.4590542035166</v>
       </c>
       <c r="F23" t="n">
-        <v>594.5691490703994</v>
+        <v>594.5691490703989</v>
       </c>
       <c r="G23" t="n">
-        <v>272.5926985718853</v>
+        <v>272.5926985718848</v>
       </c>
       <c r="H23" t="n">
-        <v>68.10509783714173</v>
+        <v>68.10509783714163</v>
       </c>
       <c r="I23" t="n">
-        <v>68.10509783714173</v>
+        <v>68.10509783714163</v>
       </c>
       <c r="J23" t="n">
         <v>256.9842287961671</v>
       </c>
       <c r="K23" t="n">
-        <v>590.8036024860137</v>
+        <v>590.8036024860136</v>
       </c>
       <c r="L23" t="n">
-        <v>1041.837815734423</v>
+        <v>1041.837815734422</v>
       </c>
       <c r="M23" t="n">
         <v>1575.369720406347</v>
@@ -6002,37 +6002,37 @@
         <v>2122.148537465129</v>
       </c>
       <c r="O23" t="n">
-        <v>2703.177097187423</v>
+        <v>2625.121008344466</v>
       </c>
       <c r="P23" t="n">
-        <v>3097.951463544602</v>
+        <v>3019.895374701644</v>
       </c>
       <c r="Q23" t="n">
-        <v>3346.237825300284</v>
+        <v>3346.237825300279</v>
       </c>
       <c r="R23" t="n">
-        <v>3405.254891857086</v>
+        <v>3405.254891857081</v>
       </c>
       <c r="S23" t="n">
-        <v>3388.060223040671</v>
+        <v>3388.060223040666</v>
       </c>
       <c r="T23" t="n">
-        <v>3275.178475081382</v>
+        <v>3275.178475081378</v>
       </c>
       <c r="U23" t="n">
-        <v>3114.743998011708</v>
+        <v>3114.743998011704</v>
       </c>
       <c r="V23" t="n">
-        <v>2876.777110324626</v>
+        <v>2876.777110324623</v>
       </c>
       <c r="W23" t="n">
-        <v>2617.104454711001</v>
+        <v>2617.104454710999</v>
       </c>
       <c r="X23" t="n">
-        <v>2336.734696106411</v>
+        <v>2336.734696106409</v>
       </c>
       <c r="Y23" t="n">
-        <v>2039.691363787088</v>
+        <v>2039.691363787086</v>
       </c>
     </row>
     <row r="24">
@@ -6042,61 +6042,61 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>943.1368358860669</v>
+        <v>943.1368358860666</v>
       </c>
       <c r="C24" t="n">
-        <v>768.6838066049399</v>
+        <v>768.6838066049396</v>
       </c>
       <c r="D24" t="n">
-        <v>619.7493969436887</v>
+        <v>619.7493969436883</v>
       </c>
       <c r="E24" t="n">
-        <v>460.5119419382332</v>
+        <v>460.5119419382328</v>
       </c>
       <c r="F24" t="n">
-        <v>313.9773839651182</v>
+        <v>313.9773839651178</v>
       </c>
       <c r="G24" t="n">
-        <v>177.6142837977362</v>
+        <v>177.6142837977359</v>
       </c>
       <c r="H24" t="n">
-        <v>87.11238943560377</v>
+        <v>87.11238943560346</v>
       </c>
       <c r="I24" t="n">
-        <v>68.10509783714173</v>
+        <v>68.10509783714163</v>
       </c>
       <c r="J24" t="n">
-        <v>161.7823673277591</v>
+        <v>161.7823673277589</v>
       </c>
       <c r="K24" t="n">
-        <v>400.0465663081062</v>
+        <v>400.0465663081061</v>
       </c>
       <c r="L24" t="n">
-        <v>766.7447266207716</v>
+        <v>766.7447266207714</v>
       </c>
       <c r="M24" t="n">
-        <v>1214.021051843088</v>
+        <v>1214.021051843087</v>
       </c>
       <c r="N24" t="n">
         <v>1687.544095397542</v>
       </c>
       <c r="O24" t="n">
-        <v>2098.505374815597</v>
+        <v>2098.505374815596</v>
       </c>
       <c r="P24" t="n">
-        <v>2409.0049662917</v>
+        <v>2409.004966291699</v>
       </c>
       <c r="Q24" t="n">
-        <v>2566.6465239383</v>
+        <v>2566.646523938299</v>
       </c>
       <c r="R24" t="n">
         <v>2566.502170530815</v>
       </c>
       <c r="S24" t="n">
-        <v>2437.064284024295</v>
+        <v>2437.064284024294</v>
       </c>
       <c r="T24" t="n">
-        <v>2244.421283702151</v>
+        <v>2244.42128370215</v>
       </c>
       <c r="U24" t="n">
         <v>2016.353436836566</v>
@@ -6105,7 +6105,7 @@
         <v>1781.201328604823</v>
       </c>
       <c r="W24" t="n">
-        <v>1526.963971876622</v>
+        <v>1526.963971876621</v>
       </c>
       <c r="X24" t="n">
         <v>1319.112471671089</v>
@@ -6121,43 +6121,43 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>703.4719074962372</v>
+        <v>441.5346642513383</v>
       </c>
       <c r="C25" t="n">
-        <v>627.6317242248195</v>
+        <v>365.694480979921</v>
       </c>
       <c r="D25" t="n">
-        <v>570.6110844689731</v>
+        <v>308.6738412240749</v>
       </c>
       <c r="E25" t="n">
-        <v>515.7939905430693</v>
+        <v>253.8567472981714</v>
       </c>
       <c r="F25" t="n">
-        <v>386.2547987697303</v>
+        <v>200.0627994567507</v>
       </c>
       <c r="G25" t="n">
-        <v>218.5519621444493</v>
+        <v>125.4559624879593</v>
       </c>
       <c r="H25" t="n">
-        <v>72.3347753623071</v>
+        <v>72.33477536230666</v>
       </c>
       <c r="I25" t="n">
-        <v>68.10509783714173</v>
+        <v>68.10509783714163</v>
       </c>
       <c r="J25" t="n">
-        <v>113.2277302840773</v>
+        <v>113.2277302840772</v>
       </c>
       <c r="K25" t="n">
-        <v>317.2149132329537</v>
+        <v>317.2149132329536</v>
       </c>
       <c r="L25" t="n">
-        <v>633.7747116814498</v>
+        <v>633.7747116814496</v>
       </c>
       <c r="M25" t="n">
-        <v>977.9317572809989</v>
+        <v>977.9317572809987</v>
       </c>
       <c r="N25" t="n">
-        <v>1319.340133986864</v>
+        <v>1319.340133986863</v>
       </c>
       <c r="O25" t="n">
         <v>1618.669732907277</v>
@@ -6172,25 +6172,25 @@
         <v>1928.887529493451</v>
       </c>
       <c r="S25" t="n">
-        <v>1830.297644976767</v>
+        <v>1737.201645320277</v>
       </c>
       <c r="T25" t="n">
-        <v>1701.627029202782</v>
+        <v>1515.435029889803</v>
       </c>
       <c r="U25" t="n">
-        <v>1412.524162328426</v>
+        <v>1243.682918740014</v>
       </c>
       <c r="V25" t="n">
-        <v>1250.935673779028</v>
+        <v>1082.094430190617</v>
       </c>
       <c r="W25" t="n">
-        <v>1054.614503398557</v>
+        <v>792.6772601536566</v>
       </c>
       <c r="X25" t="n">
-        <v>919.7209521570285</v>
+        <v>657.7837089121289</v>
       </c>
       <c r="Y25" t="n">
-        <v>792.0243726699877</v>
+        <v>530.0871294250884</v>
       </c>
     </row>
     <row r="26">
@@ -6200,73 +6200,73 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C26" t="n">
         <v>1711.594658697161</v>
       </c>
       <c r="D26" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038483</v>
       </c>
       <c r="E26" t="n">
         <v>1062.439973388313</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467788</v>
+        <v>698.903701546779</v>
       </c>
       <c r="G26" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J26" t="n">
-        <v>270.0260478557148</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K26" t="n">
-        <v>603.8454215455613</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L26" t="n">
         <v>1054.87963479397</v>
       </c>
       <c r="M26" t="n">
-        <v>2033.429937623799</v>
+        <v>1588.411539465894</v>
       </c>
       <c r="N26" t="n">
-        <v>2580.208754682581</v>
+        <v>2135.190356524677</v>
       </c>
       <c r="O26" t="n">
-        <v>3083.181225561919</v>
+        <v>2826.495488321721</v>
       </c>
       <c r="P26" t="n">
-        <v>3477.955591919097</v>
+        <v>3539.850575768667</v>
       </c>
       <c r="Q26" t="n">
-        <v>3933.269522603403</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R26" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S26" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T26" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U26" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W26" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y26" t="n">
         <v>2372.257749805548</v>
@@ -6279,43 +6279,43 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>956.1786549456142</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C27" t="n">
-        <v>781.7256256644872</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D27" t="n">
         <v>632.7912160032361</v>
       </c>
       <c r="E27" t="n">
-        <v>473.5537609977805</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F27" t="n">
         <v>327.0192030246656</v>
       </c>
       <c r="G27" t="n">
-        <v>190.6561028572842</v>
+        <v>190.6561028572837</v>
       </c>
       <c r="H27" t="n">
-        <v>100.1542084951516</v>
+        <v>100.1542084951512</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J27" t="n">
-        <v>174.8241863873063</v>
+        <v>174.8241863873066</v>
       </c>
       <c r="K27" t="n">
-        <v>413.0883853676537</v>
+        <v>413.0883853676538</v>
       </c>
       <c r="L27" t="n">
-        <v>779.7865456803188</v>
+        <v>779.7865456803191</v>
       </c>
       <c r="M27" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N27" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O27" t="n">
         <v>2111.547193875144</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502698005</v>
+        <v>774.1010502697999</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899668</v>
+        <v>652.6145002899663</v>
       </c>
       <c r="D28" t="n">
-        <v>549.9474938257043</v>
+        <v>549.9474938257039</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913845</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415473</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H28" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I28" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J28" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973131</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982159</v>
       </c>
       <c r="M28" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N28" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308443</v>
       </c>
       <c r="O28" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481263</v>
       </c>
       <c r="P28" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q28" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.97243057225</v>
       </c>
       <c r="R28" t="n">
-        <v>2271.591606277853</v>
+        <v>2271.591606277851</v>
       </c>
       <c r="S28" t="n">
-        <v>2127.355355052753</v>
+        <v>2127.355355052751</v>
       </c>
       <c r="T28" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U28" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V28" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386254</v>
       </c>
       <c r="W28" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X28" t="n">
-        <v>1081.642828347424</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519669</v>
+        <v>908.2998821519662</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C29" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D29" t="n">
         <v>1400.778593038484</v>
@@ -6449,16 +6449,16 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467787</v>
+        <v>698.903701546779</v>
       </c>
       <c r="G29" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H29" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I29" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J29" t="n">
         <v>437.4316968760676</v>
@@ -6470,25 +6470,25 @@
         <v>1222.285283814323</v>
       </c>
       <c r="M29" t="n">
-        <v>1755.817188486248</v>
+        <v>1921.876785462655</v>
       </c>
       <c r="N29" t="n">
-        <v>2302.59600554503</v>
+        <v>2468.655602521437</v>
       </c>
       <c r="O29" t="n">
-        <v>2805.568476424367</v>
+        <v>2971.628073400774</v>
       </c>
       <c r="P29" t="n">
-        <v>3518.923563871313</v>
+        <v>3684.98316084772</v>
       </c>
       <c r="Q29" t="n">
-        <v>3933.269522603403</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R29" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S29" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T29" t="n">
         <v>3835.976694641922</v>
@@ -6503,7 +6503,7 @@
         <v>3040.963574146293</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y29" t="n">
         <v>2372.257749805548</v>
@@ -6537,7 +6537,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I30" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J30" t="n">
         <v>174.8241863873065</v>
@@ -6546,7 +6546,7 @@
         <v>413.0883853676536</v>
       </c>
       <c r="L30" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803191</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
@@ -6604,31 +6604,31 @@
         <v>549.9474938257041</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913843</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F31" t="n">
         <v>350.0437186415472</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H31" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J31" t="n">
         <v>172.7749345960314</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973144</v>
+        <v>423.267502797314</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982172</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M31" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N31" t="n">
         <v>1564.908879308444</v>
@@ -6680,55 +6680,55 @@
         <v>1711.594658697161</v>
       </c>
       <c r="D32" t="n">
-        <v>1400.778593038483</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E32" t="n">
         <v>1062.439973388313</v>
       </c>
       <c r="F32" t="n">
-        <v>698.903701546779</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G32" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I32" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J32" t="n">
-        <v>270.0260478557146</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K32" t="n">
-        <v>603.8454215455611</v>
+        <v>771.2510705659141</v>
       </c>
       <c r="L32" t="n">
-        <v>1054.87963479397</v>
+        <v>1635.769886219269</v>
       </c>
       <c r="M32" t="n">
-        <v>1588.411539465894</v>
+        <v>2169.301790891193</v>
       </c>
       <c r="N32" t="n">
-        <v>2135.190356524677</v>
+        <v>2716.080607949976</v>
       </c>
       <c r="O32" t="n">
-        <v>3015.155006854131</v>
+        <v>3219.053078829313</v>
       </c>
       <c r="P32" t="n">
-        <v>3728.510094301078</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q32" t="n">
-        <v>3998.328778277656</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R32" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S32" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U32" t="n">
         <v>3629.895850863831</v>
@@ -6774,7 +6774,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I33" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J33" t="n">
         <v>174.8241863873065</v>
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502698002</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899666</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257041</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F34" t="n">
         <v>350.0437186415471</v>
@@ -6853,10 +6853,10 @@
         <v>131.0229611302705</v>
       </c>
       <c r="I34" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K34" t="n">
         <v>423.2675027973144</v>
@@ -6877,31 +6877,31 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q34" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R34" t="n">
-        <v>2271.591606277853</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S34" t="n">
         <v>2127.355355052752</v>
       </c>
       <c r="T34" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U34" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V34" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W34" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X34" t="n">
-        <v>1081.642828347424</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519667</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1517.693452203977</v>
+        <v>1517.693452203974</v>
       </c>
       <c r="C35" t="n">
-        <v>1223.221309804109</v>
+        <v>1223.221309804105</v>
       </c>
       <c r="D35" t="n">
-        <v>939.4459857379024</v>
+        <v>939.4459857378984</v>
       </c>
       <c r="E35" t="n">
-        <v>628.1481076802024</v>
+        <v>628.1481076801977</v>
       </c>
       <c r="F35" t="n">
-        <v>291.6525774311389</v>
+        <v>291.6525774311335</v>
       </c>
       <c r="G35" t="n">
-        <v>289.6053422828724</v>
+        <v>289.6053422828727</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S35" t="n">
-        <v>3289.80552767681</v>
+        <v>3289.805527676809</v>
       </c>
       <c r="T35" t="n">
-        <v>3158.318154601576</v>
+        <v>3158.318154601574</v>
       </c>
       <c r="U35" t="n">
-        <v>2979.278052415956</v>
+        <v>2979.278052415954</v>
       </c>
       <c r="V35" t="n">
-        <v>2722.705539612929</v>
+        <v>2722.705539612927</v>
       </c>
       <c r="W35" t="n">
-        <v>2444.427258883359</v>
+        <v>2444.427258883356</v>
       </c>
       <c r="X35" t="n">
-        <v>2145.451875162823</v>
+        <v>2145.45187516282</v>
       </c>
       <c r="Y35" t="n">
-        <v>1829.802917727555</v>
+        <v>1829.802917727552</v>
       </c>
     </row>
     <row r="36">
@@ -7005,22 +7005,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>570.1810586580007</v>
+        <v>570.1810586580029</v>
       </c>
       <c r="C37" t="n">
-        <v>475.7352502706376</v>
+        <v>475.7352502706395</v>
       </c>
       <c r="D37" t="n">
-        <v>400.1089853988457</v>
+        <v>400.1089853988473</v>
       </c>
       <c r="E37" t="n">
-        <v>326.6862663569964</v>
+        <v>326.6862663569977</v>
       </c>
       <c r="F37" t="n">
-        <v>254.2866933996299</v>
+        <v>254.2866933996308</v>
       </c>
       <c r="G37" t="n">
-        <v>161.0742313148926</v>
+        <v>161.0742313148933</v>
       </c>
       <c r="H37" t="n">
-        <v>89.34741907329425</v>
+        <v>89.34741907329456</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J37" t="n">
         <v>111.634748879119</v>
@@ -7117,28 +7117,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R37" t="n">
-        <v>1851.345681926289</v>
+        <v>1911.954465386564</v>
       </c>
       <c r="S37" t="n">
-        <v>1734.150172293659</v>
+        <v>1794.758955753934</v>
       </c>
       <c r="T37" t="n">
-        <v>1586.873931403729</v>
+        <v>1647.482714864004</v>
       </c>
       <c r="U37" t="n">
-        <v>1372.261439069916</v>
+        <v>1432.870222530191</v>
       </c>
       <c r="V37" t="n">
-        <v>1192.067325404573</v>
+        <v>1252.676108864847</v>
       </c>
       <c r="W37" t="n">
-        <v>977.1405299081564</v>
+        <v>1037.74931336843</v>
       </c>
       <c r="X37" t="n">
-        <v>823.6413535506829</v>
+        <v>884.2501370109563</v>
       </c>
       <c r="Y37" t="n">
-        <v>677.3391489476966</v>
+        <v>677.3391489476992</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1856.228292670171</v>
+        <v>1517.693452203973</v>
       </c>
       <c r="C38" t="n">
-        <v>1561.756150270303</v>
+        <v>1223.221309804105</v>
       </c>
       <c r="D38" t="n">
-        <v>1277.980826204097</v>
+        <v>939.4459857378974</v>
       </c>
       <c r="E38" t="n">
-        <v>966.682948146396</v>
+        <v>743.5897222957075</v>
       </c>
       <c r="F38" t="n">
-        <v>630.1874178973322</v>
+        <v>407.0941920466435</v>
       </c>
       <c r="G38" t="n">
-        <v>289.6053422828724</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S38" t="n">
-        <v>3325.605821609171</v>
+        <v>3289.805527676808</v>
       </c>
       <c r="T38" t="n">
-        <v>3325.605821609171</v>
+        <v>3158.318154601573</v>
       </c>
       <c r="U38" t="n">
-        <v>3317.81289288215</v>
+        <v>2979.278052415953</v>
       </c>
       <c r="V38" t="n">
-        <v>3061.240380079123</v>
+        <v>2722.705539612926</v>
       </c>
       <c r="W38" t="n">
-        <v>2782.962099349553</v>
+        <v>2444.427258883356</v>
       </c>
       <c r="X38" t="n">
-        <v>2483.986715629017</v>
+        <v>2145.451875162819</v>
       </c>
       <c r="Y38" t="n">
-        <v>2168.337758193749</v>
+        <v>1829.802917727551</v>
       </c>
     </row>
     <row r="39">
@@ -7227,34 +7227,34 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811085</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999815</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387302</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332748</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601598</v>
       </c>
       <c r="G39" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064542</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L39" t="n">
         <v>765.1517452158131</v>
@@ -7284,7 +7284,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V39" t="n">
         <v>1779.608347199865</v>
@@ -7293,10 +7293,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="40">
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>630.7898421182765</v>
+        <v>570.1810586580029</v>
       </c>
       <c r="C40" t="n">
-        <v>536.3440337309135</v>
+        <v>475.7352502706395</v>
       </c>
       <c r="D40" t="n">
-        <v>460.7177688591216</v>
+        <v>400.1089853988473</v>
       </c>
       <c r="E40" t="n">
-        <v>326.6862663569964</v>
+        <v>326.6862663569977</v>
       </c>
       <c r="F40" t="n">
-        <v>254.2866933996299</v>
+        <v>254.2866933996308</v>
       </c>
       <c r="G40" t="n">
-        <v>161.0742313148926</v>
+        <v>161.0742313148933</v>
       </c>
       <c r="H40" t="n">
-        <v>89.34741907329425</v>
+        <v>89.34741907329456</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J40" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K40" t="n">
         <v>315.6219318279954</v>
@@ -7354,28 +7354,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R40" t="n">
-        <v>1911.954465386565</v>
+        <v>1911.954465386564</v>
       </c>
       <c r="S40" t="n">
-        <v>1794.758955753935</v>
+        <v>1794.758955753934</v>
       </c>
       <c r="T40" t="n">
-        <v>1647.482714864005</v>
+        <v>1647.482714864004</v>
       </c>
       <c r="U40" t="n">
-        <v>1432.870222530192</v>
+        <v>1432.870222530191</v>
       </c>
       <c r="V40" t="n">
-        <v>1252.676108864849</v>
+        <v>1192.067325404577</v>
       </c>
       <c r="W40" t="n">
-        <v>1037.749313368432</v>
+        <v>977.1405299081597</v>
       </c>
       <c r="X40" t="n">
-        <v>884.2501370109587</v>
+        <v>823.6413535506858</v>
       </c>
       <c r="Y40" t="n">
-        <v>737.9479324079724</v>
+        <v>677.3391489476992</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1684.110690711996</v>
+        <v>1503.267322286719</v>
       </c>
       <c r="C41" t="n">
-        <v>1387.835282072471</v>
+        <v>1206.991913647194</v>
       </c>
       <c r="D41" t="n">
-        <v>1102.256691766607</v>
+        <v>921.4133233413295</v>
       </c>
       <c r="E41" t="n">
-        <v>789.1555474692495</v>
+        <v>633.7939503766468</v>
       </c>
       <c r="F41" t="n">
-        <v>450.8567509805284</v>
+        <v>633.7939503766468</v>
       </c>
       <c r="G41" t="n">
-        <v>108.4714091264105</v>
+        <v>291.4086085225298</v>
       </c>
       <c r="H41" t="n">
         <v>66.51211643218343</v>
@@ -7409,28 +7409,28 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O41" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R41" t="n">
         <v>3325.605821609171</v>
@@ -7442,19 +7442,19 @@
         <v>3154.711622122261</v>
       </c>
       <c r="U41" t="n">
-        <v>3154.711622122261</v>
+        <v>2973.868253696985</v>
       </c>
       <c r="V41" t="n">
-        <v>2896.335843079577</v>
+        <v>2715.4924746543</v>
       </c>
       <c r="W41" t="n">
-        <v>2616.25429611035</v>
+        <v>2435.410927685073</v>
       </c>
       <c r="X41" t="n">
-        <v>2315.475646150157</v>
+        <v>2134.632277724879</v>
       </c>
       <c r="Y41" t="n">
-        <v>1998.023422475231</v>
+        <v>1817.180054049954</v>
       </c>
     </row>
     <row r="42">
@@ -7488,7 +7488,7 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K42" t="n">
         <v>398.4535849031477</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>614.5604459613609</v>
+        <v>582.8039223356022</v>
       </c>
       <c r="C43" t="n">
-        <v>486.5548477085813</v>
+        <v>486.5548477085818</v>
       </c>
       <c r="D43" t="n">
-        <v>409.1253165971321</v>
+        <v>409.1253165971326</v>
       </c>
       <c r="E43" t="n">
-        <v>333.8993313156255</v>
+        <v>333.8993313156259</v>
       </c>
       <c r="F43" t="n">
-        <v>259.6964921186017</v>
+        <v>259.696492118602</v>
       </c>
       <c r="G43" t="n">
-        <v>164.6807637942072</v>
+        <v>164.6807637942074</v>
       </c>
       <c r="H43" t="n">
-        <v>91.15068531295154</v>
+        <v>91.15068531295162</v>
       </c>
       <c r="I43" t="n">
         <v>66.51211643218343</v>
@@ -7591,28 +7591,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R43" t="n">
-        <v>1910.151199146907</v>
+        <v>1878.394675521149</v>
       </c>
       <c r="S43" t="n">
-        <v>1791.15242327462</v>
+        <v>1759.395899648862</v>
       </c>
       <c r="T43" t="n">
-        <v>1642.072916145033</v>
+        <v>1610.316392519275</v>
       </c>
       <c r="U43" t="n">
-        <v>1425.657157571563</v>
+        <v>1393.900633945805</v>
       </c>
       <c r="V43" t="n">
-        <v>1243.659777666562</v>
+        <v>1211.903254040804</v>
       </c>
       <c r="W43" t="n">
-        <v>1026.929715930488</v>
+        <v>995.17319230473</v>
       </c>
       <c r="X43" t="n">
-        <v>871.6272733333575</v>
+        <v>839.8707497075991</v>
       </c>
       <c r="Y43" t="n">
-        <v>723.521802490714</v>
+        <v>691.7652788649555</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1867.047890108114</v>
+        <v>1503.267322286719</v>
       </c>
       <c r="C44" t="n">
-        <v>1570.772481468589</v>
+        <v>1206.991913647194</v>
       </c>
       <c r="D44" t="n">
-        <v>1285.193891162726</v>
+        <v>921.4133233413299</v>
       </c>
       <c r="E44" t="n">
-        <v>972.0927468653679</v>
+        <v>747.1962547750215</v>
       </c>
       <c r="F44" t="n">
-        <v>633.7939503766469</v>
+        <v>408.8974582863004</v>
       </c>
       <c r="G44" t="n">
-        <v>291.4086085225297</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H44" t="n">
         <v>66.51211643218343</v>
@@ -7646,28 +7646,28 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912089</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M44" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R44" t="n">
         <v>3325.605821609171</v>
@@ -7676,22 +7676,22 @@
         <v>3288.002261437153</v>
       </c>
       <c r="T44" t="n">
-        <v>3201.039966268732</v>
+        <v>3154.711622122262</v>
       </c>
       <c r="U44" t="n">
-        <v>3020.196597843455</v>
+        <v>2973.868253696985</v>
       </c>
       <c r="V44" t="n">
-        <v>2761.820818800771</v>
+        <v>2715.4924746543</v>
       </c>
       <c r="W44" t="n">
-        <v>2481.739271831543</v>
+        <v>2435.410927685073</v>
       </c>
       <c r="X44" t="n">
-        <v>2180.960621871349</v>
+        <v>2134.632277724879</v>
       </c>
       <c r="Y44" t="n">
-        <v>2180.960621871349</v>
+        <v>1817.180054049954</v>
       </c>
     </row>
     <row r="45">
@@ -7701,70 +7701,70 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G45" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927785</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064588</v>
       </c>
       <c r="I45" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031479</v>
+        <v>398.453584903148</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N45" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O45" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q45" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R45" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S45" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T45" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U45" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V45" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W45" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X45" t="n">
         <v>1317.519490266131</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>582.8039223356018</v>
+        <v>582.803922335602</v>
       </c>
       <c r="C46" t="n">
-        <v>486.5548477085814</v>
+        <v>486.5548477085816</v>
       </c>
       <c r="D46" t="n">
-        <v>409.1253165971322</v>
+        <v>409.1253165971324</v>
       </c>
       <c r="E46" t="n">
-        <v>333.8993313156256</v>
+        <v>333.8993313156258</v>
       </c>
       <c r="F46" t="n">
-        <v>259.6964921186018</v>
+        <v>259.6964921186019</v>
       </c>
       <c r="G46" t="n">
         <v>164.6807637942073</v>
       </c>
       <c r="H46" t="n">
-        <v>91.15068531295157</v>
+        <v>91.15068531295158</v>
       </c>
       <c r="I46" t="n">
         <v>66.51211643218343</v>
@@ -7807,16 +7807,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K46" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L46" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M46" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N46" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O46" t="n">
         <v>1617.076751502319</v>
@@ -7828,13 +7828,13 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R46" t="n">
-        <v>1878.394675521148</v>
+        <v>1910.151199146908</v>
       </c>
       <c r="S46" t="n">
-        <v>1759.395899648861</v>
+        <v>1791.152423274621</v>
       </c>
       <c r="T46" t="n">
-        <v>1610.316392519274</v>
+        <v>1642.072916145033</v>
       </c>
       <c r="U46" t="n">
         <v>1393.900633945804</v>
@@ -7843,13 +7843,13 @@
         <v>1211.903254040804</v>
       </c>
       <c r="W46" t="n">
-        <v>995.1731923047295</v>
+        <v>995.1731923047297</v>
       </c>
       <c r="X46" t="n">
-        <v>839.8707497075986</v>
+        <v>839.8707497075989</v>
       </c>
       <c r="Y46" t="n">
-        <v>691.765278864955</v>
+        <v>691.7652788649552</v>
       </c>
     </row>
   </sheetData>
@@ -9404,7 +9404,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9474,7 +9474,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>2.025046796916286e-13</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -9650,13 +9650,13 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>78.8445341848053</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>78.84453418480021</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9711,7 +9711,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>2.025046796916286e-13</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -9881,22 +9881,22 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>190.2350110279878</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>209.1187564935591</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>167.7369666428357</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10130,7 +10130,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>167.7369666428364</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10346,13 +10346,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10361,13 +10361,13 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>137.5908801368506</v>
       </c>
       <c r="Q32" t="n">
-        <v>21.74982042514725</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10598,7 +10598,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>-1.415168291682168e-12</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>4.760636329592671e-13</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>4.760636329592671e-13</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>4.760636329592671e-13</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23261,10 +23261,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>307.7079050020904</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>245.2834320100557</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>35.71613504204264</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="12">
@@ -23504,13 +23504,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>350.0332614100539</v>
       </c>
       <c r="H14" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,16 +23543,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>62.21262516958328</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>119.3117957433195</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>280.7771218515423</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>77.27552795452289</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23780,10 +23780,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>17.02272212825146</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>60.25280582627654</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23975,7 +23975,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>77.27552795452395</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -24032,7 +24032,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>77.27552795452728</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24497,7 +24497,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -25166,7 +25166,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>335.1494920615306</v>
+        <v>335.1494920615377</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -25397,7 +25397,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>114.2871984693557</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25406,7 +25406,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>220.8622935921824</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25439,13 +25439,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>35.44229099303743</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>130.1724993444818</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>169.5347017240122</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25634,16 +25634,16 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>25.22695361934831</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>334.9158085238338</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>181.107827402158</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25682,7 +25682,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>179.0349347410243</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25871,7 +25871,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>137.4952349737391</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25880,7 +25880,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>222.6475271694428</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25916,7 +25916,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>45.86506070500545</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25931,7 +25931,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>314.2777014381759</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>622756.9137145613</v>
+        <v>622756.9137145616</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>622756.9137145613</v>
+        <v>622756.9137145614</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>630351.374570974</v>
+        <v>630351.3745709739</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>654757.8874532296</v>
+        <v>654757.8874532295</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>654757.8874532296</v>
+        <v>654757.8874532295</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>607361.8380573732</v>
+        <v>607361.8380573727</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>607361.8380573731</v>
+        <v>607361.8380573727</v>
       </c>
     </row>
     <row r="15">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>819276.3387170383</v>
+        <v>819276.3387170384</v>
       </c>
       <c r="C2" t="n">
-        <v>819276.3387170384</v>
+        <v>819276.3387170386</v>
       </c>
       <c r="D2" t="n">
-        <v>819287.5455204683</v>
+        <v>819287.5455204685</v>
       </c>
       <c r="E2" t="n">
-        <v>764531.0098898421</v>
+        <v>764531.0098898422</v>
       </c>
       <c r="F2" t="n">
-        <v>764531.0098898424</v>
+        <v>764531.0098898415</v>
       </c>
       <c r="G2" t="n">
         <v>814890.637839103</v>
       </c>
       <c r="H2" t="n">
-        <v>814890.6378391025</v>
+        <v>814890.6378391027</v>
       </c>
       <c r="I2" t="n">
-        <v>821041.7698642828</v>
+        <v>821041.7698642827</v>
       </c>
       <c r="J2" t="n">
-        <v>821041.7698642832</v>
+        <v>821041.7698642819</v>
       </c>
       <c r="K2" t="n">
-        <v>821041.7698642828</v>
+        <v>821041.7698642821</v>
       </c>
       <c r="L2" t="n">
         <v>821041.7698642828</v>
       </c>
       <c r="M2" t="n">
-        <v>794363.870296186</v>
+        <v>794363.8702961846</v>
       </c>
       <c r="N2" t="n">
         <v>794363.8702961848</v>
       </c>
       <c r="O2" t="n">
-        <v>792374.405997686</v>
+        <v>792374.4059976861</v>
       </c>
       <c r="P2" t="n">
-        <v>792374.4059976859</v>
+        <v>792374.4059976863</v>
       </c>
     </row>
     <row r="3">
@@ -26369,7 +26369,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>29992.697977509</v>
+        <v>29992.69797750899</v>
       </c>
       <c r="E3" t="n">
         <v>1133211.97770721</v>
@@ -26378,25 +26378,25 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>36151.92243306545</v>
+        <v>36151.92243306555</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>5295.090102348951</v>
+        <v>5295.090102348649</v>
       </c>
       <c r="J3" t="n">
-        <v>44082.10818701143</v>
+        <v>44082.10818701152</v>
       </c>
       <c r="K3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>36151.92243306543</v>
+        <v>36151.92243306572</v>
       </c>
       <c r="M3" t="n">
-        <v>183016.7004463511</v>
+        <v>183016.7004463507</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,40 +26424,40 @@
         <v>436446.0876274609</v>
       </c>
       <c r="E4" t="n">
-        <v>59435.44534362318</v>
+        <v>59435.44534362316</v>
       </c>
       <c r="F4" t="n">
-        <v>59435.44534362314</v>
+        <v>59435.44534362315</v>
       </c>
       <c r="G4" t="n">
-        <v>88063.09131572337</v>
+        <v>88063.09131572359</v>
       </c>
       <c r="H4" t="n">
-        <v>88063.09131572339</v>
+        <v>88063.09131572358</v>
       </c>
       <c r="I4" t="n">
-        <v>91053.61719063253</v>
+        <v>91053.61719063256</v>
       </c>
       <c r="J4" t="n">
-        <v>86909.55729936327</v>
+        <v>86909.55729936335</v>
       </c>
       <c r="K4" t="n">
-        <v>86909.55729936334</v>
+        <v>86909.55729936331</v>
       </c>
       <c r="L4" t="n">
         <v>86909.55729936333</v>
       </c>
       <c r="M4" t="n">
-        <v>76347.08823438449</v>
+        <v>76347.08823438421</v>
       </c>
       <c r="N4" t="n">
-        <v>76347.08823438449</v>
+        <v>76347.08823438418</v>
       </c>
       <c r="O4" t="n">
-        <v>75211.56751478273</v>
+        <v>75211.56751478264</v>
       </c>
       <c r="P4" t="n">
-        <v>75211.5675147827</v>
+        <v>75211.56751478263</v>
       </c>
     </row>
     <row r="5">
@@ -26479,16 +26479,16 @@
         <v>78255.49332178176</v>
       </c>
       <c r="F5" t="n">
-        <v>78255.49332178176</v>
+        <v>78255.49332178177</v>
       </c>
       <c r="G5" t="n">
-        <v>82054.56328056348</v>
+        <v>82054.56328056351</v>
       </c>
       <c r="H5" t="n">
-        <v>82054.56328056348</v>
+        <v>82054.56328056351</v>
       </c>
       <c r="I5" t="n">
-        <v>83265.2291483318</v>
+        <v>83265.22914833175</v>
       </c>
       <c r="J5" t="n">
         <v>89377.94167480612</v>
@@ -26500,10 +26500,10 @@
         <v>89377.94167480612</v>
       </c>
       <c r="M5" t="n">
-        <v>80506.04854566979</v>
+        <v>80506.04854566975</v>
       </c>
       <c r="N5" t="n">
-        <v>80506.04854566979</v>
+        <v>80506.04854566974</v>
       </c>
       <c r="O5" t="n">
         <v>80355.96574406305</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>338624.1184446454</v>
+        <v>338619.7048667774</v>
       </c>
       <c r="C6" t="n">
-        <v>338624.1184446455</v>
+        <v>338619.7048667776</v>
       </c>
       <c r="D6" t="n">
-        <v>318457.6964318214</v>
+        <v>318453.3108709622</v>
       </c>
       <c r="E6" t="n">
-        <v>-506371.9064827728</v>
+        <v>-506513.1833827088</v>
       </c>
       <c r="F6" t="n">
-        <v>626840.0712244374</v>
+        <v>626698.7943245005</v>
       </c>
       <c r="G6" t="n">
-        <v>608621.0608097507</v>
+        <v>608605.6829796873</v>
       </c>
       <c r="H6" t="n">
-        <v>644772.9832428157</v>
+        <v>644757.6054127526</v>
       </c>
       <c r="I6" t="n">
-        <v>641427.8334229696</v>
+        <v>641427.8334229698</v>
       </c>
       <c r="J6" t="n">
-        <v>600672.1627031022</v>
+        <v>600672.1627031008</v>
       </c>
       <c r="K6" t="n">
-        <v>644754.2708901134</v>
+        <v>644754.2708901127</v>
       </c>
       <c r="L6" t="n">
-        <v>608602.3484570479</v>
+        <v>608602.3484570477</v>
       </c>
       <c r="M6" t="n">
-        <v>454494.0330697806</v>
+        <v>454427.3383208596</v>
       </c>
       <c r="N6" t="n">
-        <v>637510.7335161306</v>
+        <v>637444.0387672106</v>
       </c>
       <c r="O6" t="n">
-        <v>636806.8727388402</v>
+        <v>636735.2043291739</v>
       </c>
       <c r="P6" t="n">
-        <v>636806.8727388402</v>
+        <v>636735.2043291741</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F2" t="n">
         <v>46.97513661859256</v>
       </c>
       <c r="G2" t="n">
-        <v>92.16503965992437</v>
+        <v>92.16503965992472</v>
       </c>
       <c r="H2" t="n">
-        <v>92.16503965992437</v>
+        <v>92.16503965992472</v>
       </c>
       <c r="I2" t="n">
-        <v>92.16503965992437</v>
+        <v>92.16503965992472</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859252</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="K2" t="n">
         <v>46.97513661859256</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M2" t="n">
-        <v>73.74547079513839</v>
+        <v>73.74547079513805</v>
       </c>
       <c r="N2" t="n">
-        <v>73.74547079513839</v>
+        <v>73.74547079513805</v>
       </c>
       <c r="O2" t="n">
-        <v>71.96023721787768</v>
+        <v>71.96023721787759</v>
       </c>
       <c r="P2" t="n">
-        <v>71.96023721787765</v>
+        <v>71.96023721787762</v>
       </c>
     </row>
     <row r="3">
@@ -26759,7 +26759,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="J3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="K3" t="n">
         <v>1089.776700593298</v>
@@ -26777,7 +26777,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
     </row>
     <row r="4">
@@ -26796,34 +26796,34 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="F4" t="n">
+        <v>831.4014554022931</v>
+      </c>
+      <c r="G4" t="n">
         <v>831.4014554022928</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
         <v>831.4014554022928</v>
       </c>
-      <c r="G4" t="n">
-        <v>831.4014554022929</v>
-      </c>
-      <c r="H4" t="n">
-        <v>831.4014554022929</v>
-      </c>
       <c r="I4" t="n">
-        <v>851.3137229642716</v>
+        <v>851.3137229642704</v>
       </c>
       <c r="J4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="K4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="L4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="O4" t="n">
         <v>831.4014554022929</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>45.18990304133182</v>
+        <v>45.18990304133215</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,16 +26929,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.785233577260712</v>
+        <v>1.785233577260456</v>
       </c>
       <c r="K2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>45.18990304133179</v>
+        <v>45.18990304133215</v>
       </c>
       <c r="M2" t="n">
-        <v>26.77033417654585</v>
+        <v>26.77033417654548</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26963,7 +26963,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>35.02126071912533</v>
+        <v>35.02126071912532</v>
       </c>
       <c r="E3" t="n">
         <v>1054.755439874173</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>19.91226756197875</v>
+        <v>19.91226756197761</v>
       </c>
       <c r="J4" t="n">
-        <v>163.0227382443429</v>
+        <v>163.0227382443441</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>648.4664495959711</v>
+        <v>648.466449595971</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>45.18990304133182</v>
+        <v>45.18990304133215</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.785233577260712</v>
+        <v>1.785233577260456</v>
       </c>
       <c r="P2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28087,25 +28087,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C11" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D11" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E11" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F11" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G11" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H11" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I11" t="n">
         <v>41.57692977292595</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T11" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U11" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V11" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W11" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X11" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y11" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="14">
@@ -28506,7 +28506,7 @@
         <v>46.97513661859256</v>
       </c>
       <c r="J16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859234</v>
       </c>
       <c r="K16" t="n">
         <v>46.97513661859256</v>
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>92.16503965992437</v>
+        <v>92.16503965992472</v>
       </c>
       <c r="C17" t="n">
-        <v>92.16503965992437</v>
+        <v>92.16503965992472</v>
       </c>
       <c r="D17" t="n">
-        <v>92.16503965992437</v>
+        <v>92.16503965992472</v>
       </c>
       <c r="E17" t="n">
-        <v>92.16503965992437</v>
+        <v>92.16503965992472</v>
       </c>
       <c r="F17" t="n">
-        <v>92.16503965992437</v>
+        <v>92.16503965992472</v>
       </c>
       <c r="G17" t="n">
-        <v>92.16503965992437</v>
+        <v>92.16503965992472</v>
       </c>
       <c r="H17" t="n">
-        <v>92.16503965992437</v>
+        <v>92.16503965992472</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>92.16503965992437</v>
+        <v>92.16503965992472</v>
       </c>
       <c r="T17" t="n">
-        <v>92.16503965992437</v>
+        <v>92.16503965992472</v>
       </c>
       <c r="U17" t="n">
-        <v>92.16503965992437</v>
+        <v>92.16503965992472</v>
       </c>
       <c r="V17" t="n">
-        <v>92.16503965992437</v>
+        <v>92.16503965992472</v>
       </c>
       <c r="W17" t="n">
-        <v>92.16503965992437</v>
+        <v>92.16503965992472</v>
       </c>
       <c r="X17" t="n">
-        <v>92.16503965992437</v>
+        <v>92.16503965992472</v>
       </c>
       <c r="Y17" t="n">
-        <v>92.16503965992437</v>
+        <v>92.16503965992472</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>17.17724816732556</v>
+        <v>92.16503965992472</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>92.16503965992472</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>92.16503965992472</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>17.17724816732169</v>
       </c>
       <c r="F19" t="n">
-        <v>92.16503965992437</v>
+        <v>92.16503965992472</v>
       </c>
       <c r="G19" t="n">
-        <v>92.16503965992437</v>
+        <v>92.16503965992472</v>
       </c>
       <c r="H19" t="n">
-        <v>92.16503965992437</v>
+        <v>92.16503965992472</v>
       </c>
       <c r="I19" t="n">
-        <v>92.16503965992437</v>
+        <v>92.16503965992472</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28770,25 +28770,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>92.16503965992437</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>92.16503965992437</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>92.16503965992437</v>
+        <v>92.16503965992472</v>
       </c>
       <c r="V19" t="n">
-        <v>92.16503965992437</v>
+        <v>92.16503965992472</v>
       </c>
       <c r="W19" t="n">
-        <v>92.16503965992437</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>92.16503965992437</v>
+        <v>92.16503965992472</v>
       </c>
       <c r="Y19" t="n">
-        <v>92.16503965992437</v>
+        <v>92.16503965992472</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>92.16503965992437</v>
+        <v>92.16503965992472</v>
       </c>
       <c r="C20" t="n">
-        <v>92.16503965992437</v>
+        <v>92.16503965992472</v>
       </c>
       <c r="D20" t="n">
-        <v>92.16503965992437</v>
+        <v>92.16503965992472</v>
       </c>
       <c r="E20" t="n">
-        <v>92.16503965992437</v>
+        <v>92.16503965992472</v>
       </c>
       <c r="F20" t="n">
-        <v>92.16503965992437</v>
+        <v>92.16503965992472</v>
       </c>
       <c r="G20" t="n">
-        <v>92.16503965992437</v>
+        <v>92.16503965992472</v>
       </c>
       <c r="H20" t="n">
-        <v>92.16503965992437</v>
+        <v>92.16503965992472</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>92.16503965992437</v>
+        <v>92.16503965992472</v>
       </c>
       <c r="T20" t="n">
-        <v>92.16503965992437</v>
+        <v>92.16503965992472</v>
       </c>
       <c r="U20" t="n">
-        <v>92.16503965992437</v>
+        <v>92.16503965992472</v>
       </c>
       <c r="V20" t="n">
-        <v>92.16503965992437</v>
+        <v>92.16503965992472</v>
       </c>
       <c r="W20" t="n">
-        <v>92.16503965992437</v>
+        <v>92.16503965992472</v>
       </c>
       <c r="X20" t="n">
-        <v>92.16503965992437</v>
+        <v>92.16503965992472</v>
       </c>
       <c r="Y20" t="n">
-        <v>92.16503965992437</v>
+        <v>92.16503965992472</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>92.16503965992437</v>
+        <v>92.16503965992472</v>
       </c>
       <c r="C22" t="n">
-        <v>92.16503965992437</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>92.16503965992437</v>
+        <v>92.16503965992472</v>
       </c>
       <c r="E22" t="n">
-        <v>92.16503965992437</v>
+        <v>92.16503965992472</v>
       </c>
       <c r="F22" t="n">
-        <v>92.16503965992437</v>
+        <v>92.16503965992472</v>
       </c>
       <c r="G22" t="n">
-        <v>92.16503965992437</v>
+        <v>92.16503965992472</v>
       </c>
       <c r="H22" t="n">
-        <v>13.94436117744877</v>
+        <v>92.16503965992472</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>92.16503965992472</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29007,25 +29007,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>92.16503965992437</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>92.16503965992472</v>
       </c>
       <c r="U22" t="n">
-        <v>92.16503965992437</v>
+        <v>92.16503965992472</v>
       </c>
       <c r="V22" t="n">
-        <v>92.16503965992437</v>
+        <v>13.94436117744419</v>
       </c>
       <c r="W22" t="n">
-        <v>92.16503965992437</v>
+        <v>92.16503965992472</v>
       </c>
       <c r="X22" t="n">
-        <v>92.16503965992437</v>
+        <v>92.16503965992472</v>
       </c>
       <c r="Y22" t="n">
-        <v>92.16503965992437</v>
+        <v>92.16503965992472</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>92.16503965992437</v>
+        <v>92.16503965992472</v>
       </c>
       <c r="C23" t="n">
-        <v>92.16503965992437</v>
+        <v>92.16503965992472</v>
       </c>
       <c r="D23" t="n">
-        <v>92.16503965992437</v>
+        <v>92.16503965992472</v>
       </c>
       <c r="E23" t="n">
-        <v>92.16503965992437</v>
+        <v>92.16503965992472</v>
       </c>
       <c r="F23" t="n">
-        <v>92.16503965992437</v>
+        <v>92.16503965992472</v>
       </c>
       <c r="G23" t="n">
-        <v>92.16503965992437</v>
+        <v>92.16503965992472</v>
       </c>
       <c r="H23" t="n">
-        <v>92.16503965992437</v>
+        <v>92.16503965992472</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>92.16503965992437</v>
+        <v>92.16503965992472</v>
       </c>
       <c r="T23" t="n">
-        <v>92.16503965992437</v>
+        <v>92.16503965992472</v>
       </c>
       <c r="U23" t="n">
-        <v>92.16503965992437</v>
+        <v>92.16503965992472</v>
       </c>
       <c r="V23" t="n">
-        <v>92.16503965992437</v>
+        <v>92.16503965992472</v>
       </c>
       <c r="W23" t="n">
-        <v>92.16503965992437</v>
+        <v>92.16503965992472</v>
       </c>
       <c r="X23" t="n">
-        <v>92.16503965992437</v>
+        <v>92.16503965992472</v>
       </c>
       <c r="Y23" t="n">
-        <v>92.16503965992437</v>
+        <v>92.16503965992472</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>92.16503965992437</v>
+        <v>92.16503965992472</v>
       </c>
       <c r="C25" t="n">
-        <v>92.16503965992437</v>
+        <v>92.16503965992472</v>
       </c>
       <c r="D25" t="n">
-        <v>92.16503965992437</v>
+        <v>92.16503965992472</v>
       </c>
       <c r="E25" t="n">
-        <v>92.16503965992437</v>
+        <v>92.16503965992472</v>
       </c>
       <c r="F25" t="n">
-        <v>17.17724816732567</v>
+        <v>92.16503965992472</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>92.16503965992472</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>92.16503965992472</v>
       </c>
       <c r="I25" t="n">
-        <v>92.16503965992437</v>
+        <v>92.16503965992472</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29244,25 +29244,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>92.16503965992437</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>92.16503965992437</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>17.17724816732175</v>
       </c>
       <c r="V25" t="n">
-        <v>92.16503965992437</v>
+        <v>92.16503965992472</v>
       </c>
       <c r="W25" t="n">
-        <v>92.16503965992437</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>92.16503965992437</v>
+        <v>92.16503965992472</v>
       </c>
       <c r="Y25" t="n">
-        <v>92.16503965992437</v>
+        <v>92.16503965992472</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859252</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859252</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859252</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859252</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859252</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859252</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859252</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859252</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859252</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859252</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859252</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859252</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859252</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859252</v>
+        <v>46.9751366185926</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859128</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.9751366185926</v>
       </c>
     </row>
     <row r="29">
@@ -29694,7 +29694,7 @@
         <v>46.97513661859256</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859222</v>
       </c>
       <c r="L31" t="n">
         <v>46.97513661859256</v>
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>73.74547079513839</v>
+        <v>73.74547079513805</v>
       </c>
       <c r="C35" t="n">
-        <v>73.74547079513839</v>
+        <v>73.74547079513805</v>
       </c>
       <c r="D35" t="n">
-        <v>73.74547079513839</v>
+        <v>73.74547079513805</v>
       </c>
       <c r="E35" t="n">
-        <v>73.74547079513839</v>
+        <v>73.74547079513805</v>
       </c>
       <c r="F35" t="n">
-        <v>73.74547079513839</v>
+        <v>73.74547079513805</v>
       </c>
       <c r="G35" t="n">
-        <v>73.74547079513839</v>
+        <v>73.74547079513805</v>
       </c>
       <c r="H35" t="n">
-        <v>73.74547079513839</v>
+        <v>73.74547079513805</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>73.74547079513839</v>
+        <v>73.74547079513805</v>
       </c>
       <c r="T35" t="n">
-        <v>73.74547079513839</v>
+        <v>73.74547079513805</v>
       </c>
       <c r="U35" t="n">
-        <v>73.74547079513839</v>
+        <v>73.74547079513805</v>
       </c>
       <c r="V35" t="n">
-        <v>73.74547079513839</v>
+        <v>73.74547079513805</v>
       </c>
       <c r="W35" t="n">
-        <v>73.74547079513839</v>
+        <v>73.74547079513805</v>
       </c>
       <c r="X35" t="n">
-        <v>73.74547079513839</v>
+        <v>73.74547079513805</v>
       </c>
       <c r="Y35" t="n">
-        <v>73.74547079513839</v>
+        <v>73.74547079513805</v>
       </c>
     </row>
     <row r="36">
@@ -30141,28 +30141,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>73.74547079513839</v>
+        <v>73.74547079513805</v>
       </c>
       <c r="C37" t="n">
-        <v>73.74547079513839</v>
+        <v>73.74547079513805</v>
       </c>
       <c r="D37" t="n">
-        <v>73.74547079513839</v>
+        <v>73.74547079513805</v>
       </c>
       <c r="E37" t="n">
-        <v>73.74547079513839</v>
+        <v>73.74547079513805</v>
       </c>
       <c r="F37" t="n">
-        <v>73.74547079513839</v>
+        <v>73.74547079513805</v>
       </c>
       <c r="G37" t="n">
-        <v>73.74547079513839</v>
+        <v>73.74547079513805</v>
       </c>
       <c r="H37" t="n">
-        <v>73.74547079513839</v>
+        <v>73.74547079513805</v>
       </c>
       <c r="I37" t="n">
-        <v>73.74547079513839</v>
+        <v>73.74547079513805</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -30189,28 +30189,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>13.74277516946559</v>
+        <v>73.74547079513805</v>
       </c>
       <c r="S37" t="n">
-        <v>73.74547079513839</v>
+        <v>73.74547079513805</v>
       </c>
       <c r="T37" t="n">
-        <v>73.74547079513839</v>
+        <v>73.74547079513805</v>
       </c>
       <c r="U37" t="n">
-        <v>73.74547079513839</v>
+        <v>73.74547079513805</v>
       </c>
       <c r="V37" t="n">
-        <v>73.74547079513839</v>
+        <v>73.74547079513805</v>
       </c>
       <c r="W37" t="n">
-        <v>73.74547079513839</v>
+        <v>73.74547079513805</v>
       </c>
       <c r="X37" t="n">
-        <v>73.74547079513839</v>
+        <v>73.74547079513805</v>
       </c>
       <c r="Y37" t="n">
-        <v>73.74547079513839</v>
+        <v>13.74277516947024</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>73.74547079513839</v>
+        <v>73.74547079513805</v>
       </c>
       <c r="C38" t="n">
-        <v>73.74547079513839</v>
+        <v>73.74547079513805</v>
       </c>
       <c r="D38" t="n">
-        <v>73.74547079513839</v>
+        <v>73.74547079513805</v>
       </c>
       <c r="E38" t="n">
-        <v>73.74547079513839</v>
+        <v>73.74547079513805</v>
       </c>
       <c r="F38" t="n">
-        <v>73.74547079513839</v>
+        <v>73.74547079513805</v>
       </c>
       <c r="G38" t="n">
-        <v>73.74547079513839</v>
+        <v>73.74547079513805</v>
       </c>
       <c r="H38" t="n">
-        <v>73.74547079513839</v>
+        <v>73.74547079513805</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>73.74547079513839</v>
+        <v>73.74547079513805</v>
       </c>
       <c r="T38" t="n">
-        <v>73.74547079513839</v>
+        <v>73.74547079513805</v>
       </c>
       <c r="U38" t="n">
-        <v>73.74547079513839</v>
+        <v>73.74547079513805</v>
       </c>
       <c r="V38" t="n">
-        <v>73.74547079513839</v>
+        <v>73.74547079513805</v>
       </c>
       <c r="W38" t="n">
-        <v>73.74547079513839</v>
+        <v>73.74547079513805</v>
       </c>
       <c r="X38" t="n">
-        <v>73.74547079513839</v>
+        <v>73.74547079513805</v>
       </c>
       <c r="Y38" t="n">
-        <v>73.74547079513839</v>
+        <v>73.74547079513805</v>
       </c>
     </row>
     <row r="39">
@@ -30378,28 +30378,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>73.74547079513839</v>
+        <v>73.74547079513805</v>
       </c>
       <c r="C40" t="n">
-        <v>73.74547079513839</v>
+        <v>73.74547079513805</v>
       </c>
       <c r="D40" t="n">
-        <v>73.74547079513839</v>
+        <v>73.74547079513805</v>
       </c>
       <c r="E40" t="n">
-        <v>13.74277516946523</v>
+        <v>73.74547079513805</v>
       </c>
       <c r="F40" t="n">
-        <v>73.74547079513839</v>
+        <v>73.74547079513805</v>
       </c>
       <c r="G40" t="n">
-        <v>73.74547079513839</v>
+        <v>73.74547079513805</v>
       </c>
       <c r="H40" t="n">
-        <v>73.74547079513839</v>
+        <v>73.74547079513805</v>
       </c>
       <c r="I40" t="n">
-        <v>73.74547079513839</v>
+        <v>73.74547079513805</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -30426,28 +30426,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>73.74547079513839</v>
+        <v>73.74547079513805</v>
       </c>
       <c r="S40" t="n">
-        <v>73.74547079513839</v>
+        <v>73.74547079513805</v>
       </c>
       <c r="T40" t="n">
-        <v>73.74547079513839</v>
+        <v>73.74547079513805</v>
       </c>
       <c r="U40" t="n">
-        <v>73.74547079513839</v>
+        <v>73.74547079513805</v>
       </c>
       <c r="V40" t="n">
-        <v>73.74547079513839</v>
+        <v>13.74277516947041</v>
       </c>
       <c r="W40" t="n">
-        <v>73.74547079513839</v>
+        <v>73.74547079513805</v>
       </c>
       <c r="X40" t="n">
-        <v>73.74547079513839</v>
+        <v>73.74547079513805</v>
       </c>
       <c r="Y40" t="n">
-        <v>73.74547079513839</v>
+        <v>73.74547079513805</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>71.96023721787768</v>
+        <v>71.96023721787759</v>
       </c>
       <c r="C41" t="n">
-        <v>71.96023721787768</v>
+        <v>71.96023721787759</v>
       </c>
       <c r="D41" t="n">
-        <v>71.96023721787768</v>
+        <v>71.96023721787759</v>
       </c>
       <c r="E41" t="n">
-        <v>71.96023721787768</v>
+        <v>71.96023721787759</v>
       </c>
       <c r="F41" t="n">
-        <v>71.96023721787768</v>
+        <v>71.96023721787759</v>
       </c>
       <c r="G41" t="n">
-        <v>71.96023721787768</v>
+        <v>71.96023721787759</v>
       </c>
       <c r="H41" t="n">
-        <v>71.96023721787768</v>
+        <v>71.96023721787759</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>71.96023721787768</v>
+        <v>71.96023721787759</v>
       </c>
       <c r="T41" t="n">
-        <v>71.96023721787768</v>
+        <v>71.96023721787759</v>
       </c>
       <c r="U41" t="n">
-        <v>71.96023721787768</v>
+        <v>71.96023721787759</v>
       </c>
       <c r="V41" t="n">
-        <v>71.96023721787768</v>
+        <v>71.96023721787759</v>
       </c>
       <c r="W41" t="n">
-        <v>71.96023721787768</v>
+        <v>71.96023721787759</v>
       </c>
       <c r="X41" t="n">
-        <v>71.96023721787768</v>
+        <v>71.96023721787759</v>
       </c>
       <c r="Y41" t="n">
-        <v>71.96023721787768</v>
+        <v>71.96023721787759</v>
       </c>
     </row>
     <row r="42">
@@ -30615,28 +30615,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>71.96023721787768</v>
+        <v>71.96023721787759</v>
       </c>
       <c r="C43" t="n">
-        <v>40.52127882837605</v>
+        <v>71.96023721787759</v>
       </c>
       <c r="D43" t="n">
-        <v>71.96023721787768</v>
+        <v>71.96023721787759</v>
       </c>
       <c r="E43" t="n">
-        <v>71.96023721787768</v>
+        <v>71.96023721787759</v>
       </c>
       <c r="F43" t="n">
-        <v>71.96023721787768</v>
+        <v>71.96023721787759</v>
       </c>
       <c r="G43" t="n">
-        <v>71.96023721787768</v>
+        <v>71.96023721787759</v>
       </c>
       <c r="H43" t="n">
-        <v>71.96023721787768</v>
+        <v>71.96023721787759</v>
       </c>
       <c r="I43" t="n">
-        <v>71.96023721787768</v>
+        <v>71.96023721787759</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -30663,28 +30663,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>71.96023721787768</v>
+        <v>40.52127882837711</v>
       </c>
       <c r="S43" t="n">
-        <v>71.96023721787768</v>
+        <v>71.96023721787759</v>
       </c>
       <c r="T43" t="n">
-        <v>71.96023721787768</v>
+        <v>71.96023721787759</v>
       </c>
       <c r="U43" t="n">
-        <v>71.96023721787768</v>
+        <v>71.96023721787759</v>
       </c>
       <c r="V43" t="n">
-        <v>71.96023721787768</v>
+        <v>71.96023721787759</v>
       </c>
       <c r="W43" t="n">
-        <v>71.96023721787768</v>
+        <v>71.96023721787759</v>
       </c>
       <c r="X43" t="n">
-        <v>71.96023721787768</v>
+        <v>71.96023721787759</v>
       </c>
       <c r="Y43" t="n">
-        <v>71.96023721787768</v>
+        <v>71.96023721787759</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>71.96023721787765</v>
+        <v>71.96023721787762</v>
       </c>
       <c r="C44" t="n">
-        <v>71.96023721787765</v>
+        <v>71.96023721787762</v>
       </c>
       <c r="D44" t="n">
-        <v>71.96023721787765</v>
+        <v>71.96023721787762</v>
       </c>
       <c r="E44" t="n">
-        <v>71.96023721787765</v>
+        <v>71.96023721787762</v>
       </c>
       <c r="F44" t="n">
-        <v>71.96023721787765</v>
+        <v>71.96023721787762</v>
       </c>
       <c r="G44" t="n">
-        <v>71.96023721787765</v>
+        <v>71.96023721787762</v>
       </c>
       <c r="H44" t="n">
-        <v>71.96023721787765</v>
+        <v>71.96023721787762</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>71.96023721787765</v>
+        <v>71.96023721787762</v>
       </c>
       <c r="T44" t="n">
-        <v>71.96023721787765</v>
+        <v>71.96023721787762</v>
       </c>
       <c r="U44" t="n">
-        <v>71.96023721787765</v>
+        <v>71.96023721787762</v>
       </c>
       <c r="V44" t="n">
-        <v>71.96023721787765</v>
+        <v>71.96023721787762</v>
       </c>
       <c r="W44" t="n">
-        <v>71.96023721787765</v>
+        <v>71.96023721787762</v>
       </c>
       <c r="X44" t="n">
-        <v>71.96023721787765</v>
+        <v>71.96023721787762</v>
       </c>
       <c r="Y44" t="n">
-        <v>71.96023721787765</v>
+        <v>71.96023721787762</v>
       </c>
     </row>
     <row r="45">
@@ -30852,28 +30852,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>71.96023721787765</v>
+        <v>71.96023721787762</v>
       </c>
       <c r="C46" t="n">
-        <v>71.96023721787765</v>
+        <v>71.96023721787762</v>
       </c>
       <c r="D46" t="n">
-        <v>71.96023721787765</v>
+        <v>71.96023721787762</v>
       </c>
       <c r="E46" t="n">
-        <v>71.96023721787765</v>
+        <v>71.96023721787762</v>
       </c>
       <c r="F46" t="n">
-        <v>71.96023721787765</v>
+        <v>71.96023721787762</v>
       </c>
       <c r="G46" t="n">
-        <v>71.96023721787765</v>
+        <v>71.96023721787762</v>
       </c>
       <c r="H46" t="n">
-        <v>71.96023721787765</v>
+        <v>71.96023721787762</v>
       </c>
       <c r="I46" t="n">
-        <v>71.96023721787765</v>
+        <v>71.96023721787762</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -30900,28 +30900,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>40.52127882837643</v>
+        <v>71.96023721787762</v>
       </c>
       <c r="S46" t="n">
-        <v>71.96023721787765</v>
+        <v>71.96023721787762</v>
       </c>
       <c r="T46" t="n">
-        <v>71.96023721787765</v>
+        <v>71.96023721787762</v>
       </c>
       <c r="U46" t="n">
-        <v>71.96023721787765</v>
+        <v>40.52127882837627</v>
       </c>
       <c r="V46" t="n">
-        <v>71.96023721787765</v>
+        <v>71.96023721787762</v>
       </c>
       <c r="W46" t="n">
-        <v>71.96023721787765</v>
+        <v>71.96023721787762</v>
       </c>
       <c r="X46" t="n">
-        <v>71.96023721787765</v>
+        <v>71.96023721787762</v>
       </c>
       <c r="Y46" t="n">
-        <v>71.96023721787765</v>
+        <v>71.96023721787762</v>
       </c>
     </row>
   </sheetData>
@@ -32084,7 +32084,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
         <v>609.6478166837925</v>
@@ -32312,7 +32312,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
@@ -32549,7 +32549,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H26" t="n">
         <v>44.86703772844668</v>
@@ -32944,40 +32944,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R26" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T26" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U26" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,46 +33014,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H27" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
         <v>221.4611312026439</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33096,43 +33096,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K28" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P28" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q28" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U28" t="n">
         <v>0.1071911508780295</v>
@@ -33266,13 +33266,13 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M30" t="n">
         <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
         <v>557.708647897025</v>
@@ -33509,7 +33509,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
         <v>557.708647897025</v>
@@ -33518,7 +33518,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33737,7 +33737,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L36" t="n">
         <v>508.9565619138796</v>
@@ -33755,7 +33755,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33971,13 +33971,13 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
         <v>593.9283018233475</v>
@@ -34208,10 +34208,10 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L42" t="n">
         <v>508.9565619138796</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H44" t="n">
         <v>44.86703772844668</v>
@@ -34366,40 +34366,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T44" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,46 +34436,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q45" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34518,43 +34518,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L46" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U46" t="n">
         <v>0.1071911508780295</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K13" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L13" t="n">
         <v>366.7325087887907</v>
@@ -35732,7 +35732,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
         <v>478.3061046004592</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165857</v>
       </c>
       <c r="K16" t="n">
         <v>253.0227961629121</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597691</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
@@ -36124,7 +36124,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923325</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
         <v>538.9211158302268</v>
@@ -36142,7 +36142,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222479</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597691</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
@@ -36370,13 +36370,13 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>586.8975350730244</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>329.6388389885197</v>
       </c>
       <c r="R23" t="n">
         <v>59.61319854222478</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230594</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882193</v>
+        <v>698.2880119162069</v>
       </c>
       <c r="P26" t="n">
-        <v>398.761986219372</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
-        <v>459.9130612972787</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152073</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,25 +36671,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597723</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
         <v>159.2338966127272</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165882</v>
       </c>
       <c r="K28" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629109</v>
       </c>
       <c r="L28" t="n">
         <v>366.7325087887907</v>
@@ -36765,13 +36765,13 @@
         <v>391.8320827861327</v>
       </c>
       <c r="O28" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412324</v>
       </c>
       <c r="P28" t="n">
         <v>281.932207763703</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564863</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36838,7 +36838,7 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>706.6580824730624</v>
       </c>
       <c r="N29" t="n">
         <v>552.3018354129115</v>
@@ -36850,7 +36850,7 @@
         <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
-        <v>418.5312714465559</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
         <v>125.3296184152072</v>
@@ -36914,13 +36914,13 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M30" t="n">
         <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
         <v>415.1124034525806</v>
@@ -36990,7 +36990,7 @@
         <v>92.55355323165878</v>
       </c>
       <c r="K31" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629118</v>
       </c>
       <c r="L31" t="n">
         <v>366.7325087887907</v>
@@ -37066,13 +37066,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M32" t="n">
         <v>538.9211158302268</v>
@@ -37081,13 +37081,13 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>536.3528663562224</v>
       </c>
       <c r="Q32" t="n">
-        <v>272.5441252288667</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
         <v>59.61319854222478</v>
@@ -37157,7 +37157,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
         <v>415.1124034525806</v>
@@ -37166,7 +37166,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K34" t="n">
         <v>253.0227961629121</v>
@@ -37318,7 +37318,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882182</v>
       </c>
       <c r="P35" t="n">
         <v>398.7619862193719</v>
@@ -37385,7 +37385,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L36" t="n">
         <v>370.4021821340054</v>
@@ -37403,7 +37403,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37549,7 +37549,7 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302251</v>
       </c>
       <c r="N38" t="n">
         <v>552.3018354129115</v>
@@ -37564,7 +37564,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222526</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,13 +37619,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597691</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
         <v>451.7942679013292</v>
@@ -37801,7 +37801,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222526</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597691</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L42" t="n">
         <v>370.4021821340054</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N44" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222526</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,25 +38093,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q45" t="n">
         <v>159.2338966127272</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K46" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L46" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M46" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N46" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O46" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P46" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
